--- a/IntelliJ-Shortcuts.xlsx
+++ b/IntelliJ-Shortcuts.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="290">
   <si>
     <t>Smart code completion</t>
   </si>
@@ -883,6 +883,12 @@
   </si>
   <si>
     <t>New in This Directory</t>
+  </si>
+  <si>
+    <t>Maximize Tool Window</t>
+  </si>
+  <si>
+    <t>Ctr + Shift + Ä</t>
   </si>
 </sst>
 </file>
@@ -1045,7 +1051,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1082,6 +1088,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1391,7 +1400,7 @@
   <dimension ref="A1:J53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1408,18 +1417,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="D1" s="19" t="s">
+      <c r="B1" s="28"/>
+      <c r="D1" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="E1" s="19"/>
-      <c r="G1" s="19" t="s">
+      <c r="E1" s="28"/>
+      <c r="G1" s="28" t="s">
         <v>159</v>
       </c>
-      <c r="H1" s="19"/>
+      <c r="H1" s="28"/>
       <c r="I1" s="15"/>
       <c r="J1" s="2" t="s">
         <v>266</v>
@@ -1497,7 +1506,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>23</v>
       </c>
@@ -1521,12 +1530,12 @@
         <v>260</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>26</v>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>288</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>289</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>127</v>
@@ -1545,12 +1554,12 @@
         <v>261</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A7" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>279</v>
+    <row r="7" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>126</v>
@@ -1569,12 +1578,12 @@
         <v>262</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>29</v>
+    <row r="8" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>279</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>125</v>
@@ -1593,12 +1602,12 @@
         <v>263</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>124</v>
@@ -1619,10 +1628,10 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>123</v>
@@ -1641,7 +1650,13 @@
         <v>264</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="D11" s="4" t="s">
         <v>122</v>
       </c>
@@ -1656,11 +1671,9 @@
       </c>
       <c r="I11" s="16"/>
     </row>
-    <row r="12" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A12" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="19"/>
+    <row r="12" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
       <c r="D12" s="4" t="s">
         <v>121</v>
       </c>
@@ -1676,12 +1689,10 @@
       <c r="I12" s="16"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>41</v>
-      </c>
+      <c r="A13" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="B13" s="12"/>
       <c r="D13" s="4" t="s">
         <v>120</v>
       </c>
@@ -1696,12 +1707,12 @@
       </c>
       <c r="I13" s="16"/>
     </row>
-    <row r="14" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>38</v>
+        <v>231</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>39</v>
+        <v>226</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>119</v>
@@ -1717,12 +1728,12 @@
       </c>
       <c r="I14" s="16"/>
     </row>
-    <row r="15" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>42</v>
+        <v>230</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>43</v>
+        <v>227</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>118</v>
@@ -1738,12 +1749,12 @@
       </c>
       <c r="I15" s="16"/>
     </row>
-    <row r="16" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>44</v>
+        <v>229</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>45</v>
+        <v>228</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>7</v>
@@ -1759,13 +1770,9 @@
       </c>
       <c r="I16" s="16"/>
     </row>
-    <row r="17" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>47</v>
-      </c>
+    <row r="17" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
       <c r="D17" s="6" t="s">
         <v>9</v>
       </c>
@@ -1780,13 +1787,11 @@
       </c>
       <c r="I17" s="16"/>
     </row>
-    <row r="18" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>49</v>
-      </c>
+    <row r="18" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="B18" s="12"/>
       <c r="D18" s="4" t="s">
         <v>117</v>
       </c>
@@ -1801,12 +1806,12 @@
       </c>
       <c r="I18" s="16"/>
     </row>
-    <row r="19" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>50</v>
+        <v>243</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>51</v>
+        <v>242</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>4</v>
@@ -1823,6 +1828,12 @@
       <c r="I19" s="16"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>241</v>
+      </c>
       <c r="D20" s="4" t="s">
         <v>116</v>
       </c>
@@ -1837,11 +1848,9 @@
       </c>
       <c r="I20" s="16"/>
     </row>
-    <row r="21" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A21" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="B21" s="19"/>
+    <row r="21" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
       <c r="D21" s="4" t="s">
         <v>115</v>
       </c>
@@ -1856,13 +1865,11 @@
       </c>
       <c r="I21" s="16"/>
     </row>
-    <row r="22" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A22" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>3</v>
-      </c>
+    <row r="22" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="19"/>
       <c r="D22" s="4" t="s">
         <v>114</v>
       </c>
@@ -1877,12 +1884,12 @@
       </c>
       <c r="I22" s="16"/>
     </row>
-    <row r="23" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>54</v>
+    <row r="23" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>3</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>113</v>
@@ -1898,12 +1905,12 @@
       </c>
       <c r="I23" s="16"/>
     </row>
-    <row r="24" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>112</v>
@@ -1919,12 +1926,12 @@
       </c>
       <c r="I24" s="16"/>
     </row>
-    <row r="25" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>111</v>
@@ -1940,12 +1947,12 @@
       </c>
       <c r="I25" s="16"/>
     </row>
-    <row r="26" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>110</v>
@@ -1963,10 +1970,10 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>109</v>
@@ -1982,12 +1989,12 @@
       </c>
       <c r="I27" s="16"/>
     </row>
-    <row r="28" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>108</v>
@@ -2003,12 +2010,12 @@
       </c>
       <c r="I28" s="16"/>
     </row>
-    <row r="29" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>107</v>
@@ -2024,12 +2031,12 @@
       </c>
       <c r="I29" s="16"/>
     </row>
-    <row r="30" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>106</v>
@@ -2045,7 +2052,13 @@
       </c>
       <c r="I30" s="16"/>
     </row>
-    <row r="31" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>66</v>
+      </c>
       <c r="D31" s="4" t="s">
         <v>105</v>
       </c>
@@ -2060,11 +2073,9 @@
       </c>
       <c r="I31" s="16"/>
     </row>
-    <row r="32" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A32" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="B32" s="20"/>
+    <row r="32" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
       <c r="D32" s="4" t="s">
         <v>104</v>
       </c>
@@ -2080,12 +2091,10 @@
       <c r="I32" s="16"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>145</v>
-      </c>
+      <c r="A33" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="B33" s="20"/>
       <c r="D33" s="4" t="s">
         <v>103</v>
       </c>
@@ -2102,10 +2111,10 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D34" s="17" t="s">
         <v>281</v>
@@ -2121,12 +2130,12 @@
       </c>
       <c r="I34" s="16"/>
     </row>
-    <row r="35" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>102</v>
@@ -2142,12 +2151,12 @@
       </c>
       <c r="I35" s="16"/>
     </row>
-    <row r="36" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A36" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>14</v>
+    <row r="36" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>143</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>101</v>
@@ -2156,12 +2165,12 @@
         <v>94</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A37" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>142</v>
+    <row r="37" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>14</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>100</v>
@@ -2169,18 +2178,18 @@
       <c r="E37" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="G37" s="19" t="s">
+      <c r="G37" s="28" t="s">
         <v>214</v>
       </c>
-      <c r="H37" s="19"/>
+      <c r="H37" s="28"/>
       <c r="I37" s="15"/>
     </row>
-    <row r="38" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>99</v>
@@ -2196,12 +2205,12 @@
       </c>
       <c r="I38" s="16"/>
     </row>
-    <row r="39" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>98</v>
@@ -2217,12 +2226,12 @@
       </c>
       <c r="I39" s="16"/>
     </row>
-    <row r="40" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>97</v>
@@ -2238,12 +2247,12 @@
       </c>
       <c r="I40" s="16"/>
     </row>
-    <row r="41" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D41" s="13" t="s">
         <v>256</v>
@@ -2261,10 +2270,10 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D42" s="13" t="s">
         <v>268</v>
@@ -2282,10 +2291,10 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D43" s="10" t="s">
         <v>285</v>
@@ -2303,10 +2312,10 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D44" s="10" t="s">
         <v>287</v>
@@ -2316,23 +2325,27 @@
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>135</v>
+      </c>
       <c r="D45" s="10" t="s">
         <v>248</v>
       </c>
       <c r="E45" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="G45" s="12" t="s">
-        <v>225</v>
-      </c>
-      <c r="H45" s="12"/>
+      <c r="G45" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="H45" s="19"/>
       <c r="I45" s="15"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="12" t="s">
-        <v>232</v>
-      </c>
-      <c r="B46" s="12"/>
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
       <c r="D46" s="10" t="s">
         <v>278</v>
       </c>
@@ -2340,20 +2353,18 @@
         <v>277</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>231</v>
+        <v>40</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>226</v>
+        <v>41</v>
       </c>
       <c r="I46" s="16"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>233</v>
-      </c>
+      <c r="A47" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="B47" s="19"/>
       <c r="D47" s="10" t="s">
         <v>252</v>
       </c>
@@ -2361,44 +2372,48 @@
         <v>253</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>230</v>
+        <v>38</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>227</v>
+        <v>39</v>
       </c>
       <c r="I47" s="16"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>229</v>
+        <v>42</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>228</v>
+        <v>43</v>
       </c>
       <c r="I48" s="16"/>
     </row>
     <row r="49" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H49" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="B50" s="5" t="s">
         <v>235</v>
-      </c>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="17" t="s">
-        <v>236</v>
-      </c>
-      <c r="B50" s="18" t="s">
-        <v>280</v>
       </c>
       <c r="D50" s="22" t="s">
         <v>15</v>
@@ -2406,13 +2421,21 @@
       <c r="E50" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="G50" s="12" t="s">
-        <v>240</v>
-      </c>
-      <c r="H50" s="12"/>
+      <c r="G50" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" s="5" t="s">
+        <v>47</v>
+      </c>
       <c r="I50" s="15"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="B51" s="18" t="s">
+        <v>280</v>
+      </c>
       <c r="D51" s="24" t="s">
         <v>36</v>
       </c>
@@ -2420,10 +2443,10 @@
         <v>34</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>243</v>
+        <v>48</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>242</v>
+        <v>49</v>
       </c>
       <c r="I51" s="16"/>
     </row>
@@ -2433,10 +2456,10 @@
       </c>
       <c r="E52" s="27"/>
       <c r="G52" s="4" t="s">
-        <v>244</v>
+        <v>50</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>241</v>
+        <v>51</v>
       </c>
       <c r="I52" s="16"/>
     </row>
@@ -2444,16 +2467,13 @@
       <c r="B53" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A32:B32"/>
+  <mergeCells count="4">
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="G37:H37"/>
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A21:B21"/>
     <mergeCell ref="D1:E1"/>
   </mergeCells>
-  <pageMargins left="0.70866141732283472" right="0.11811023622047245" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" scale="71" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>

--- a/IntelliJ-Shortcuts.xlsx
+++ b/IntelliJ-Shortcuts.xlsx
@@ -1,25 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="30" windowWidth="22110" windowHeight="9555"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
-    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
-    <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Tabelle1!$A$1:$J$52</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Tabelle1!$A$1:$H$52</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="280">
   <si>
     <t>Smart code completion</t>
   </si>
@@ -790,36 +788,6 @@
   </si>
   <si>
     <t>Close all tabs</t>
-  </si>
-  <si>
-    <t>1 Project</t>
-  </si>
-  <si>
-    <t>2 Favorites</t>
-  </si>
-  <si>
-    <t>4 Run</t>
-  </si>
-  <si>
-    <t>5 Debug</t>
-  </si>
-  <si>
-    <t>6 TODO</t>
-  </si>
-  <si>
-    <t>7 Structure</t>
-  </si>
-  <si>
-    <t>8 Hierarchy</t>
-  </si>
-  <si>
-    <t>0 Messages</t>
-  </si>
-  <si>
-    <t>9 VCS</t>
-  </si>
-  <si>
-    <t>Tool Win</t>
   </si>
   <si>
     <t>Ctrl + Alt + W</t>
@@ -894,8 +862,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -906,13 +874,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1051,11 +1012,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1069,10 +1028,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1111,7 +1066,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa-Design">
   <a:themeElements>
     <a:clrScheme name="Larissa">
       <a:dk1>
@@ -1185,7 +1140,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1220,7 +1174,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Larissa">
@@ -1396,14 +1349,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J53"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="32.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
@@ -1413,1058 +1366,978 @@
     <col min="6" max="6" width="4.42578125" customWidth="1"/>
     <col min="7" max="7" width="34.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="2.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="D1" s="28" t="s">
+      <c r="B1" s="24"/>
+      <c r="D1" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="E1" s="28"/>
-      <c r="G1" s="28" t="s">
+      <c r="E1" s="24"/>
+      <c r="G1" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="H1" s="28"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="H1" s="24"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="I2" s="16"/>
-      <c r="J2" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="I3" s="16"/>
-      <c r="J3" s="3" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="I4" s="16"/>
-      <c r="J4" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="I5" s="16"/>
-      <c r="J5" s="3" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
-        <v>288</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>289</v>
-      </c>
-      <c r="D6" s="4" t="s">
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>279</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="I6" s="16"/>
-      <c r="J6" s="3" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+    </row>
+    <row r="7" spans="1:8" ht="14.45" customHeight="1">
+      <c r="A7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="I7" s="16"/>
-      <c r="J7" s="3" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
+    </row>
+    <row r="8" spans="1:8" ht="14.45" customHeight="1">
+      <c r="A8" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="18" t="s">
-        <v>279</v>
-      </c>
-      <c r="D8" s="4" t="s">
+      <c r="B8" s="14" t="s">
+        <v>269</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="I8" s="16"/>
-      <c r="J8" s="3" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+    </row>
+    <row r="9" spans="1:8" ht="14.45" customHeight="1">
+      <c r="A9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="I9" s="16"/>
-      <c r="J9" s="3" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I10" s="16"/>
-      <c r="J10" s="3" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+    </row>
+    <row r="11" spans="1:8" ht="14.45" customHeight="1">
+      <c r="A11" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H11" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="I11" s="16"/>
-    </row>
-    <row r="12" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:8" ht="14.45" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H12" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="I12" s="16"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="B13" s="12"/>
-      <c r="D13" s="4" t="s">
+      <c r="B13" s="10"/>
+      <c r="D13" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G13" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="H13" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="I13" s="16"/>
-    </row>
-    <row r="14" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+    </row>
+    <row r="14" spans="1:8" ht="14.45" customHeight="1">
+      <c r="A14" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="G14" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="H14" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="I14" s="16"/>
-    </row>
-    <row r="15" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+    </row>
+    <row r="15" spans="1:8" ht="14.45" customHeight="1">
+      <c r="A15" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="G15" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="H15" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="I15" s="16"/>
-    </row>
-    <row r="16" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+    </row>
+    <row r="16" spans="1:8" ht="14.45" customHeight="1">
+      <c r="A16" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="H16" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="I16" s="16"/>
-    </row>
-    <row r="17" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:8" ht="14.45" customHeight="1">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="G17" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="H17" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="I17" s="16"/>
-    </row>
-    <row r="18" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
+    </row>
+    <row r="18" spans="1:8" ht="14.45" customHeight="1">
+      <c r="A18" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="B18" s="12"/>
-      <c r="D18" s="4" t="s">
+      <c r="B18" s="10"/>
+      <c r="D18" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="G18" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="H18" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="I18" s="16"/>
-    </row>
-    <row r="19" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+    </row>
+    <row r="19" spans="1:8" ht="14.45" customHeight="1">
+      <c r="A19" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="G19" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="H19" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="I19" s="16"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="G20" s="17" t="s">
-        <v>283</v>
-      </c>
-      <c r="H20" s="18" t="s">
-        <v>284</v>
-      </c>
-      <c r="I20" s="16"/>
-    </row>
-    <row r="21" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G20" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="H20" s="14" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="14.45" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="G21" s="4" t="s">
+      <c r="G21" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="H21" s="5" t="s">
+      <c r="H21" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="I21" s="16"/>
-    </row>
-    <row r="22" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="19" t="s">
+    </row>
+    <row r="22" spans="1:8" ht="14.45" customHeight="1">
+      <c r="A22" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="B22" s="19"/>
-      <c r="D22" s="4" t="s">
+      <c r="B22" s="15"/>
+      <c r="D22" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="G22" s="4" t="s">
+      <c r="G22" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="H22" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="I22" s="16"/>
-    </row>
-    <row r="23" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
+    </row>
+    <row r="23" spans="1:8" ht="14.45" customHeight="1">
+      <c r="A23" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="G23" s="4" t="s">
+      <c r="G23" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="H23" s="5" t="s">
+      <c r="H23" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="I23" s="16"/>
-    </row>
-    <row r="24" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
+    </row>
+    <row r="24" spans="1:8" ht="14.45" customHeight="1">
+      <c r="A24" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="G24" s="4" t="s">
+      <c r="G24" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="H24" s="5" t="s">
+      <c r="H24" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="I24" s="16"/>
-    </row>
-    <row r="25" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
+    </row>
+    <row r="25" spans="1:8" ht="14.45" customHeight="1">
+      <c r="A25" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E25" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="G25" s="4" t="s">
+      <c r="G25" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="H25" s="5" t="s">
+      <c r="H25" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="I25" s="16"/>
-    </row>
-    <row r="26" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
+    </row>
+    <row r="26" spans="1:8" ht="14.45" customHeight="1">
+      <c r="A26" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E26" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="G26" s="4" t="s">
+      <c r="G26" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="H26" s="5" t="s">
+      <c r="H26" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="I26" s="16"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="E27" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="G27" s="4" t="s">
+      <c r="G27" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="H27" s="5" t="s">
+      <c r="H27" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="I27" s="16"/>
-    </row>
-    <row r="28" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
+    </row>
+    <row r="28" spans="1:8" ht="14.45" customHeight="1">
+      <c r="A28" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="E28" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="G28" s="4" t="s">
+      <c r="G28" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="H28" s="5" t="s">
+      <c r="H28" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="I28" s="16"/>
-    </row>
-    <row r="29" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
+    </row>
+    <row r="29" spans="1:8" ht="14.45" customHeight="1">
+      <c r="A29" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="E29" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="G29" s="4" t="s">
+      <c r="G29" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="H29" s="5" t="s">
+      <c r="H29" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="I29" s="16"/>
-    </row>
-    <row r="30" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
+    </row>
+    <row r="30" spans="1:8" ht="14.45" customHeight="1">
+      <c r="A30" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E30" s="5" t="s">
+      <c r="E30" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="G30" s="4" t="s">
+      <c r="G30" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="H30" s="5" t="s">
+      <c r="H30" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="I30" s="16"/>
-    </row>
-    <row r="31" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
+    </row>
+    <row r="31" spans="1:8" ht="14.45" customHeight="1">
+      <c r="A31" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="E31" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="G31" s="4" t="s">
+      <c r="G31" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="H31" s="5" t="s">
+      <c r="H31" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="I31" s="16"/>
-    </row>
-    <row r="32" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:8" ht="14.45" customHeight="1">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
-      <c r="D32" s="4" t="s">
+      <c r="D32" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E32" s="5" t="s">
+      <c r="E32" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="G32" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="H32" s="11" t="s">
+      <c r="G32" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="H32" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="I32" s="16"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="20" t="s">
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="B33" s="20"/>
-      <c r="D33" s="4" t="s">
+      <c r="B33" s="16"/>
+      <c r="D33" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="E33" s="5" t="s">
+      <c r="E33" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="G33" s="10" t="s">
+      <c r="G33" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="H33" s="9" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="E34" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="14.45" customHeight="1">
+      <c r="A35" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="H35" s="9" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="14.45" customHeight="1">
+      <c r="A36" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="14.45" customHeight="1">
+      <c r="A37" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="G37" s="24" t="s">
+        <v>214</v>
+      </c>
+      <c r="H37" s="24"/>
+    </row>
+    <row r="38" spans="1:8" ht="14.45" customHeight="1">
+      <c r="A38" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="14.45" customHeight="1">
+      <c r="A39" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="14.45" customHeight="1">
+      <c r="A40" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="14.45" customHeight="1">
+      <c r="A41" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="E42" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D43" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="H33" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="I33" s="16"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="D34" s="17" t="s">
-        <v>281</v>
-      </c>
-      <c r="E34" s="18" t="s">
-        <v>282</v>
-      </c>
-      <c r="G34" s="10" t="s">
+      <c r="E43" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="G43" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="H43" s="12" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="E44" s="9" t="s">
         <v>276</v>
       </c>
-      <c r="H34" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="I34" s="16"/>
-    </row>
-    <row r="35" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="G35" s="10" t="s">
-        <v>270</v>
-      </c>
-      <c r="H35" s="11" t="s">
-        <v>271</v>
-      </c>
-      <c r="I35" s="16"/>
-    </row>
-    <row r="36" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="G37" s="28" t="s">
-        <v>214</v>
-      </c>
-      <c r="H37" s="28"/>
-      <c r="I37" s="15"/>
-    </row>
-    <row r="38" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="H38" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="I38" s="16"/>
-    </row>
-    <row r="39" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="H39" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="I39" s="16"/>
-    </row>
-    <row r="40" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="H40" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="I40" s="16"/>
-    </row>
-    <row r="41" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="D41" s="13" t="s">
-        <v>256</v>
-      </c>
-      <c r="E41" s="14" t="s">
-        <v>267</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="H41" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="I41" s="16"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="D42" s="13" t="s">
-        <v>268</v>
-      </c>
-      <c r="E42" s="14" t="s">
-        <v>269</v>
-      </c>
-      <c r="G42" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="H42" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="I42" s="16"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="D43" s="10" t="s">
-        <v>285</v>
-      </c>
-      <c r="E43" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="G43" s="13" t="s">
-        <v>272</v>
-      </c>
-      <c r="H43" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="I43" s="16"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="D44" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="E44" s="11" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="s">
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="D45" s="10" t="s">
+      <c r="D45" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="E45" s="11" t="s">
+      <c r="E45" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="G45" s="19" t="s">
+      <c r="G45" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="H45" s="19"/>
-      <c r="I45" s="15"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H45" s="15"/>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
-      <c r="D46" s="10" t="s">
-        <v>278</v>
-      </c>
-      <c r="E46" s="11" t="s">
-        <v>277</v>
-      </c>
-      <c r="G46" s="4" t="s">
+      <c r="D46" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="G46" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H46" s="5" t="s">
+      <c r="H46" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="I46" s="16"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="19" t="s">
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="B47" s="19"/>
-      <c r="D47" s="10" t="s">
+      <c r="B47" s="15"/>
+      <c r="D47" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="E47" s="11" t="s">
+      <c r="E47" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="G47" s="4" t="s">
+      <c r="G47" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="H47" s="5" t="s">
+      <c r="H47" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="I47" s="16"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="s">
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B48" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="G48" s="4" t="s">
+      <c r="G48" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H48" s="5" t="s">
+      <c r="H48" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="I48" s="16"/>
-    </row>
-    <row r="49" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="4" t="s">
+    </row>
+    <row r="49" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A49" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="B49" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="G49" s="4" t="s">
+      <c r="G49" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="H49" s="5" t="s">
+      <c r="H49" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="4" t="s">
+    <row r="50" spans="1:8">
+      <c r="A50" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B50" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="D50" s="22" t="s">
+      <c r="D50" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E50" s="23" t="s">
+      <c r="E50" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="G50" s="4" t="s">
+      <c r="G50" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H50" s="5" t="s">
+      <c r="H50" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="I50" s="15"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="17" t="s">
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="13" t="s">
         <v>236</v>
       </c>
-      <c r="B51" s="18" t="s">
-        <v>280</v>
-      </c>
-      <c r="D51" s="24" t="s">
+      <c r="B51" s="14" t="s">
+        <v>270</v>
+      </c>
+      <c r="D51" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="E51" s="25" t="s">
+      <c r="E51" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="G51" s="4" t="s">
+      <c r="G51" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H51" s="5" t="s">
+      <c r="H51" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="I51" s="16"/>
-    </row>
-    <row r="52" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D52" s="26" t="s">
+    </row>
+    <row r="52" spans="1:8" ht="15.75" thickBot="1">
+      <c r="D52" s="22" t="s">
         <v>251</v>
       </c>
-      <c r="E52" s="27"/>
-      <c r="G52" s="4" t="s">
+      <c r="E52" s="23"/>
+      <c r="G52" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="H52" s="5" t="s">
+      <c r="H52" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="I52" s="16"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B53" s="21"/>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="B53" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2474,30 +2347,9 @@
     <mergeCell ref="D1:E1"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="71" orientation="landscape" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="72" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;CTool Windows: 1 Project / 2 Favorites / 4 Run / 5 Debug / 6 TODO / 7 Structure / 8 Hierarchy / 9 VCS / 0 Messages</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
--- a/IntelliJ-Shortcuts.xlsx
+++ b/IntelliJ-Shortcuts.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="281">
   <si>
     <t>Smart code completion</t>
   </si>
@@ -40,18 +40,6 @@
     <t>Ctrl + P</t>
   </si>
   <si>
-    <t>Extend selection</t>
-  </si>
-  <si>
-    <t>Ctrl + W</t>
-  </si>
-  <si>
-    <t>Shrink selection</t>
-  </si>
-  <si>
-    <t>Ctrl + Shift + W</t>
-  </si>
-  <si>
     <t>Recent files popup</t>
   </si>
   <si>
@@ -124,9 +112,6 @@
     <t>Shortcut added</t>
   </si>
   <si>
-    <t>Shortcut changed</t>
-  </si>
-  <si>
     <t>Reference fixed</t>
   </si>
   <si>
@@ -178,36 +163,12 @@
     <t>Search / Replace</t>
   </si>
   <si>
-    <t>Find</t>
-  </si>
-  <si>
-    <t>Ctrl + F</t>
-  </si>
-  <si>
     <t>Find next / previous</t>
   </si>
   <si>
     <t>F3 / Shift + F3</t>
   </si>
   <si>
-    <t>Replace</t>
-  </si>
-  <si>
-    <t>Ctrl + R</t>
-  </si>
-  <si>
-    <t>Find in path</t>
-  </si>
-  <si>
-    <t>Ctrl + Shift + F</t>
-  </si>
-  <si>
-    <t>Replace in path</t>
-  </si>
-  <si>
-    <t>Ctrl + Shift + R</t>
-  </si>
-  <si>
     <t>Alt + J</t>
   </si>
   <si>
@@ -238,21 +199,12 @@
     <t>Ctrl + Q</t>
   </si>
   <si>
-    <t>Ctrl + mouse</t>
-  </si>
-  <si>
     <t>Ctrl + F1</t>
   </si>
   <si>
     <t>Alt + Insert</t>
   </si>
   <si>
-    <t>Ctrl + O</t>
-  </si>
-  <si>
-    <t>Ctrl + I</t>
-  </si>
-  <si>
     <t>Ctrl + Alt + T</t>
   </si>
   <si>
@@ -286,24 +238,12 @@
     <t>Ctrl + Y</t>
   </si>
   <si>
-    <t>Ctrl + Shift + J</t>
-  </si>
-  <si>
-    <t>Ctrl + Enter</t>
-  </si>
-  <si>
     <t>Shift + Enter</t>
   </si>
   <si>
     <t>Ctrl + Shift + U</t>
   </si>
   <si>
-    <t>Ctrl + Delete</t>
-  </si>
-  <si>
-    <t>Ctrl + Backspace</t>
-  </si>
-  <si>
     <t>Ctrl + NumPad+ / -</t>
   </si>
   <si>
@@ -322,24 +262,12 @@
     <t>Expand / collapse code block</t>
   </si>
   <si>
-    <t>Delete to word start</t>
-  </si>
-  <si>
-    <t>Delete to word end</t>
-  </si>
-  <si>
     <t>Toggle case for word at caret or selected block</t>
   </si>
   <si>
     <t>Start new line</t>
   </si>
   <si>
-    <t>Smart line split</t>
-  </si>
-  <si>
-    <t>Smart line join</t>
-  </si>
-  <si>
     <t>Delete line at caret</t>
   </si>
   <si>
@@ -382,12 +310,6 @@
     <t>Surround with…</t>
   </si>
   <si>
-    <t>Implement methods</t>
-  </si>
-  <si>
-    <t>Override methods</t>
-  </si>
-  <si>
     <t>Generate code…</t>
   </si>
   <si>
@@ -397,9 +319,6 @@
     <t>Brief Info</t>
   </si>
   <si>
-    <t>External Doc</t>
-  </si>
-  <si>
     <t>Quick documentation lookup</t>
   </si>
   <si>
@@ -451,18 +370,6 @@
     <t>Alt + Delete</t>
   </si>
   <si>
-    <t>F6</t>
-  </si>
-  <si>
-    <t>F5</t>
-  </si>
-  <si>
-    <t>Copy</t>
-  </si>
-  <si>
-    <t>Move</t>
-  </si>
-  <si>
     <t>Safe Delete</t>
   </si>
   <si>
@@ -565,12 +472,6 @@
     <t>Alt + Home</t>
   </si>
   <si>
-    <t>F11</t>
-  </si>
-  <si>
-    <t>Ctrl + F11</t>
-  </si>
-  <si>
     <t>Ctrl + #[0-9]</t>
   </si>
   <si>
@@ -583,18 +484,9 @@
     <t>Go to numbered bookmark</t>
   </si>
   <si>
-    <t>Toggle bookmark with mnemonic</t>
-  </si>
-  <si>
-    <t>Toggle bookmark</t>
-  </si>
-  <si>
     <t>Show navigation bar</t>
   </si>
   <si>
-    <t>Edit source / View source</t>
-  </si>
-  <si>
     <t>Next / previous highlighted error</t>
   </si>
   <si>
@@ -673,9 +565,6 @@
     <t>Alt + Shift + F10/F9</t>
   </si>
   <si>
-    <t>Shift + F10 / F9</t>
-  </si>
-  <si>
     <t>Ctrl + Shift + F10</t>
   </si>
   <si>
@@ -718,12 +607,6 @@
     <t>VCS / Local History</t>
   </si>
   <si>
-    <t>VCS Ctrl + K</t>
-  </si>
-  <si>
-    <t>Ctrl + T</t>
-  </si>
-  <si>
     <t>Ctrl + Shift + K</t>
   </si>
   <si>
@@ -733,30 +616,6 @@
     <t>Push commits</t>
   </si>
   <si>
-    <t>Update project from VCS</t>
-  </si>
-  <si>
-    <t>Commit project to</t>
-  </si>
-  <si>
-    <t>Live Templates</t>
-  </si>
-  <si>
-    <t>Ctrl + J</t>
-  </si>
-  <si>
-    <t>Ctrl + Alt + J</t>
-  </si>
-  <si>
-    <t>Surround with Live Template</t>
-  </si>
-  <si>
-    <t>Insert Live Template</t>
-  </si>
-  <si>
-    <t>F1</t>
-  </si>
-  <si>
     <t>Ctrl + NumPad/</t>
   </si>
   <si>
@@ -769,18 +628,12 @@
     <t>Alt + Shift + Up/Down</t>
   </si>
   <si>
-    <t>Ctrl + Altr + F12</t>
-  </si>
-  <si>
     <t>Reference added</t>
   </si>
   <si>
     <t>Undo/Redo</t>
   </si>
   <si>
-    <t>Ctrl + Z/Ctrl + Shift + Z</t>
-  </si>
-  <si>
     <t>Ctrl + Shift + Arrow</t>
   </si>
   <si>
@@ -835,15 +688,9 @@
     <t>Select till code block start / end</t>
   </si>
   <si>
-    <t>Ctrl + Shift + ü / +</t>
-  </si>
-  <si>
     <t>Move to code block start / end</t>
   </si>
   <si>
-    <t>Ctrl + ü/+</t>
-  </si>
-  <si>
     <t>New Element (Project Toolbar)</t>
   </si>
   <si>
@@ -856,7 +703,163 @@
     <t>Maximize Tool Window</t>
   </si>
   <si>
-    <t>Ctr + Shift + Ä</t>
+    <t>Shift + F1</t>
+  </si>
+  <si>
+    <t>External Doc (Element at Editor's caret)</t>
+  </si>
+  <si>
+    <t>Alt + Shift + C</t>
+  </si>
+  <si>
+    <t>Recent Changes</t>
+  </si>
+  <si>
+    <t>Alt + Shift + Insert</t>
+  </si>
+  <si>
+    <t>Column Selection Mode</t>
+  </si>
+  <si>
+    <t>Copy Reference</t>
+  </si>
+  <si>
+    <t>Ctrl + Alt + Shift + C</t>
+  </si>
+  <si>
+    <t>Smart line join/split</t>
+  </si>
+  <si>
+    <t>Ctrl + Shift + J / Ctrl + Enter</t>
+  </si>
+  <si>
+    <t>Find/Replace in path</t>
+  </si>
+  <si>
+    <t>Ctrl + Shift + F/R</t>
+  </si>
+  <si>
+    <t>Ctrl + F/R</t>
+  </si>
+  <si>
+    <t>Find/Replace</t>
+  </si>
+  <si>
+    <t>Terminal</t>
+  </si>
+  <si>
+    <t>Alt + F12</t>
+  </si>
+  <si>
+    <t>Ctrl + Alt + Shift + Mouse</t>
+  </si>
+  <si>
+    <t>Multiple Column Mode</t>
+  </si>
+  <si>
+    <t>Alt + Mouse</t>
+  </si>
+  <si>
+    <t>Multiple Selection</t>
+  </si>
+  <si>
+    <t>Alt + Shift + Mouse</t>
+  </si>
+  <si>
+    <t>Ctrl + Alt + Shift + Up/Down</t>
+  </si>
+  <si>
+    <t>Previous/Next Change</t>
+  </si>
+  <si>
+    <t>Ctrl + Alt + Shift + Left/Right</t>
+  </si>
+  <si>
+    <t>Move Element Left/Right</t>
+  </si>
+  <si>
+    <t>Copy / Move</t>
+  </si>
+  <si>
+    <t>F5 / F6</t>
+  </si>
+  <si>
+    <t>Shift + F10/F9</t>
+  </si>
+  <si>
+    <t>Ctrl + Z / Ctrl + Shift + Z</t>
+  </si>
+  <si>
+    <t>Override/Implement methods</t>
+  </si>
+  <si>
+    <t>Ctrl + O/I</t>
+  </si>
+  <si>
+    <t>Delete to word end/start</t>
+  </si>
+  <si>
+    <t>Ctrl + Delete/Backspace</t>
+  </si>
+  <si>
+    <t>Insert/Surround with Live Template</t>
+  </si>
+  <si>
+    <t>Ctrl + J / Ctrl + Alt + J</t>
+  </si>
+  <si>
+    <t>Commit/Update project</t>
+  </si>
+  <si>
+    <t>Ctrl + K/T</t>
+  </si>
+  <si>
+    <t>Revert</t>
+  </si>
+  <si>
+    <t>Ctrl + Alt + Z</t>
+  </si>
+  <si>
+    <t>Shortcut fixed</t>
+  </si>
+  <si>
+    <t>Ctrl + Alt + F12</t>
+  </si>
+  <si>
+    <t>Extend/Shrink selection</t>
+  </si>
+  <si>
+    <t>Ctrl + W / Ctrl + Shift + W</t>
+  </si>
+  <si>
+    <t>Ctrl + Shift + Ü/+</t>
+  </si>
+  <si>
+    <t>Ctrl + Ü/+</t>
+  </si>
+  <si>
+    <t>Ctrl + Shift + Ä</t>
+  </si>
+  <si>
+    <t>Ctrl + Mouse</t>
+  </si>
+  <si>
+    <t>Double Ctrl + Arrow</t>
+  </si>
+  <si>
+    <t>Scroll horizontally</t>
+  </si>
+  <si>
+    <t>Shift + Mouse</t>
+  </si>
+  <si>
+    <t>Jump to source / View source</t>
+  </si>
+  <si>
+    <t>F11 / Ctrl + F11</t>
+  </si>
+  <si>
+    <t>Toggle bookmark / with mnemonic</t>
   </si>
 </sst>
 </file>
@@ -1012,7 +1015,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1036,16 +1039,15 @@
     <xf numFmtId="20" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1350,64 +1352,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H53"/>
+  <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="32.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.42578125" customWidth="1"/>
+    <col min="2" max="2" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.7109375" customWidth="1"/>
     <col min="4" max="4" width="39.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.42578125" customWidth="1"/>
-    <col min="7" max="7" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.7109375" customWidth="1"/>
+    <col min="7" max="7" width="38.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="24.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="24"/>
-      <c r="D1" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="E1" s="24"/>
-      <c r="G1" s="24" t="s">
-        <v>159</v>
-      </c>
-      <c r="H1" s="24"/>
+      <c r="A1" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="D1" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="25"/>
+      <c r="G1" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="H1" s="25"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>201</v>
+        <v>165</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>157</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>20</v>
+      <c r="A3" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>243</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>0</v>
@@ -1416,412 +1418,418 @@
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>202</v>
+        <v>166</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>158</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>129</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="14.45" customHeight="1">
+      <c r="A7" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>273</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="14.45" customHeight="1">
+      <c r="A8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="14.45" customHeight="1">
+      <c r="A9" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="13" t="s">
-        <v>278</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>279</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="14.45" customHeight="1">
-      <c r="A7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="14.45" customHeight="1">
-      <c r="A8" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>269</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="14.45" customHeight="1">
-      <c r="A9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>74</v>
+      <c r="B9" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>229</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>228</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>208</v>
+        <v>172</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>165</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>75</v>
+        <v>25</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>274</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="14.45" customHeight="1">
       <c r="A11" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>209</v>
+        <v>173</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>166</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="14.45" customHeight="1">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="D12" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>77</v>
+      <c r="A12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>61</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>210</v>
+        <v>174</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>167</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="B13" s="10"/>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
       <c r="D13" s="2" t="s">
-        <v>120</v>
+        <v>257</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>78</v>
+        <v>258</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>211</v>
+        <v>175</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>168</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="14.45" customHeight="1">
-      <c r="A14" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>246</v>
+      <c r="A14" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="B14" s="10"/>
+      <c r="D14" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>62</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>212</v>
+        <v>176</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>169</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="14.45" customHeight="1">
       <c r="A15" s="2" t="s">
-        <v>230</v>
+        <v>194</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>247</v>
+        <v>189</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>262</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>213</v>
+        <v>177</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>170</v>
+        <v>139</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="14.45" customHeight="1">
       <c r="A16" s="2" t="s">
-        <v>229</v>
+        <v>193</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>8</v>
+        <v>190</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>199</v>
       </c>
       <c r="G16" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="14.45" customHeight="1">
+      <c r="A17" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E17" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="H16" s="3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="14.45" customHeight="1">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="D17" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>10</v>
-      </c>
       <c r="G17" s="2" t="s">
-        <v>199</v>
+        <v>163</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>172</v>
+        <v>141</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="14.45" customHeight="1">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="D18" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="14.45" customHeight="1">
+      <c r="A19" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="15"/>
+      <c r="D19" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="H20" s="14" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="14.45" customHeight="1">
+      <c r="A21" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="B18" s="10"/>
-      <c r="D18" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="14.45" customHeight="1">
-      <c r="A19" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="G20" s="13" t="s">
-        <v>273</v>
-      </c>
-      <c r="H20" s="14" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="14.45" customHeight="1">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
       <c r="D21" s="2" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>196</v>
+        <v>160</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="14.45" customHeight="1">
-      <c r="A22" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="B22" s="15"/>
+      <c r="A22" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="D22" s="2" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>195</v>
+        <v>159</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>176</v>
+        <v>145</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="14.45" customHeight="1">
-      <c r="A23" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>3</v>
+      <c r="A23" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>239</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>194</v>
+        <v>158</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>177</v>
+        <v>146</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="14.45" customHeight="1">
       <c r="A24" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>131</v>
+        <v>68</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>193</v>
+        <v>157</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>178</v>
+        <v>147</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="14.45" customHeight="1">
@@ -1829,526 +1837,514 @@
         <v>55</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>192</v>
+        <v>156</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>179</v>
+        <v>148</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="14.45" customHeight="1">
       <c r="A26" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>191</v>
+        <v>278</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>180</v>
+        <v>149</v>
       </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>60</v>
-      </c>
       <c r="D27" s="2" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>190</v>
+        <v>155</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>181</v>
+        <v>150</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="14.45" customHeight="1">
-      <c r="A28" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>62</v>
-      </c>
+      <c r="A28" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="B28" s="16"/>
       <c r="D28" s="2" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>189</v>
+        <v>280</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>182</v>
+        <v>279</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="14.45" customHeight="1">
       <c r="A29" s="2" t="s">
-        <v>64</v>
+        <v>253</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>63</v>
+        <v>254</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>107</v>
+        <v>236</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>88</v>
+        <v>237</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>188</v>
+        <v>154</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>183</v>
+        <v>151</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="14.45" customHeight="1">
       <c r="A30" s="2" t="s">
-        <v>68</v>
+        <v>117</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>65</v>
+        <v>116</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>187</v>
+        <v>152</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>184</v>
+        <v>153</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="14.45" customHeight="1">
-      <c r="A31" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>66</v>
+      <c r="A31" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>186</v>
+        <v>74</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="14.45" customHeight="1">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="D32" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>91</v>
+      <c r="A32" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="E32" s="14" t="s">
+        <v>271</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>264</v>
+        <v>216</v>
       </c>
       <c r="H32" s="9" t="s">
-        <v>250</v>
+        <v>205</v>
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="B33" s="16"/>
+      <c r="A33" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>114</v>
+      </c>
       <c r="D33" s="2" t="s">
-        <v>103</v>
+        <v>259</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>92</v>
+        <v>260</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>265</v>
+        <v>217</v>
       </c>
       <c r="H33" s="9" t="s">
-        <v>254</v>
+        <v>206</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="2" t="s">
-        <v>146</v>
+        <v>120</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="D34" s="13" t="s">
-        <v>271</v>
-      </c>
-      <c r="E34" s="14" t="s">
-        <v>272</v>
+        <v>113</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>266</v>
+        <v>211</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>255</v>
+        <v>212</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="14.45" customHeight="1">
       <c r="A35" s="2" t="s">
-        <v>147</v>
+        <v>121</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>144</v>
+        <v>112</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>260</v>
+        <v>276</v>
       </c>
       <c r="H35" s="9" t="s">
-        <v>261</v>
+        <v>277</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="14.45" customHeight="1">
       <c r="A36" s="2" t="s">
-        <v>148</v>
+        <v>122</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>143</v>
+        <v>111</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="14.45" customHeight="1">
-      <c r="A37" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>14</v>
+      <c r="A37" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>110</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="G37" s="24" t="s">
-        <v>214</v>
-      </c>
-      <c r="H37" s="24"/>
+        <v>76</v>
+      </c>
+      <c r="G37" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="H37" s="25"/>
     </row>
     <row r="38" spans="1:8" ht="14.45" customHeight="1">
       <c r="A38" s="2" t="s">
-        <v>149</v>
+        <v>124</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>132</v>
+        <v>109</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>208</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>224</v>
+        <v>187</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>215</v>
+        <v>179</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="14.45" customHeight="1">
       <c r="A39" s="2" t="s">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>133</v>
+        <v>108</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>210</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>223</v>
+        <v>186</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>216</v>
+        <v>180</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="14.45" customHeight="1">
-      <c r="A40" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>96</v>
+      <c r="A40" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>61</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>222</v>
+        <v>185</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>217</v>
+        <v>181</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="14.45" customHeight="1">
-      <c r="A41" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="D41" s="11" t="s">
-        <v>256</v>
-      </c>
-      <c r="E41" s="12" t="s">
-        <v>257</v>
+      <c r="D41" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>221</v>
+        <v>184</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>218</v>
+        <v>255</v>
       </c>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="D42" s="11" t="s">
-        <v>258</v>
-      </c>
-      <c r="E42" s="12" t="s">
-        <v>259</v>
+      <c r="A42" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="B42" s="15"/>
+      <c r="D42" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>202</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>220</v>
+        <v>183</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>219</v>
+        <v>182</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="2" t="s">
-        <v>154</v>
+        <v>263</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>137</v>
+        <v>264</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>275</v>
+        <v>219</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>75</v>
+        <v>218</v>
       </c>
       <c r="G43" s="11" t="s">
-        <v>262</v>
+        <v>213</v>
       </c>
       <c r="H43" s="12" t="s">
-        <v>263</v>
+        <v>214</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="2" t="s">
-        <v>155</v>
+        <v>198</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>136</v>
+        <v>196</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>277</v>
+        <v>204</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>276</v>
+        <v>256</v>
       </c>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>135</v>
+      <c r="A45" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>221</v>
       </c>
       <c r="D45" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="G45" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H45" s="15"/>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="E47" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="E45" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="G45" s="15" t="s">
+      <c r="G47" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="G48" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H45" s="15"/>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="D46" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="E46" s="9" t="s">
+      <c r="H48" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="15.75" thickBot="1">
+      <c r="D49" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B50" s="18" t="s">
         <v>267</v>
       </c>
-      <c r="G46" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H46" s="3" t="s">
+      <c r="D50" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="G50" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47" s="15" t="s">
-        <v>232</v>
-      </c>
-      <c r="B47" s="15"/>
-      <c r="D47" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="E47" s="9" t="s">
-        <v>253</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="G48" s="2" t="s">
+      <c r="H50" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H48" s="3" t="s">
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B51" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="G51" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A49" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="G49" s="2" t="s">
+      <c r="H51" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="H49" s="3" t="s">
+    </row>
+    <row r="52" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A52" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="B52" s="22"/>
+      <c r="G52" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="50" spans="1:8">
-      <c r="A50" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="D50" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="E50" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="G50" s="2" t="s">
+      <c r="H52" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="H50" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="A51" s="13" t="s">
-        <v>236</v>
-      </c>
-      <c r="B51" s="14" t="s">
-        <v>270</v>
-      </c>
-      <c r="D51" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="E51" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H51" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="15.75" thickBot="1">
-      <c r="D52" s="22" t="s">
-        <v>251</v>
-      </c>
-      <c r="E52" s="23"/>
-      <c r="G52" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
-      <c r="B53" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-  </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" scale="72" orientation="landscape" r:id="rId1"/>
   <headerFooter>
+    <oddHeader>&amp;C&amp;"-,Fett"&amp;14IntelliJ Shortcuts</oddHeader>
     <oddFooter>&amp;CTool Windows: 1 Project / 2 Favorites / 4 Run / 5 Debug / 6 TODO / 7 Structure / 8 Hierarchy / 9 VCS / 0 Messages</oddFooter>
   </headerFooter>
 </worksheet>

--- a/IntelliJ-Shortcuts.xlsx
+++ b/IntelliJ-Shortcuts.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="22110" windowHeight="9555"/>
+    <workbookView xWindow="480" yWindow="36" windowWidth="22116" windowHeight="9552"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Tabelle1!$A$1:$H$52</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -745,9 +745,6 @@
     <t>Find/Replace</t>
   </si>
   <si>
-    <t>Terminal</t>
-  </si>
-  <si>
     <t>Alt + F12</t>
   </si>
   <si>
@@ -860,13 +857,16 @@
   </si>
   <si>
     <t>Toggle bookmark / with mnemonic</t>
+  </si>
+  <si>
+    <t>Terminal (toogle)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1068,7 +1068,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa-Design">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
   <a:themeElements>
     <a:clrScheme name="Larissa">
       <a:dk1>
@@ -1142,6 +1142,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1176,6 +1177,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Larissa">
@@ -1351,26 +1353,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.7109375" customWidth="1"/>
-    <col min="4" max="4" width="39.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.7109375" customWidth="1"/>
-    <col min="7" max="7" width="38.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.6640625" customWidth="1"/>
+    <col min="4" max="4" width="39.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.6640625" customWidth="1"/>
+    <col min="7" max="7" width="38.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="25" t="s">
         <v>12</v>
       </c>
@@ -1384,7 +1386,7 @@
       </c>
       <c r="H1" s="25"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
@@ -1404,12 +1406,12 @@
         <v>126</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>242</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>243</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>0</v>
@@ -1424,7 +1426,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
@@ -1444,7 +1446,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
@@ -1464,7 +1466,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>19</v>
       </c>
@@ -1484,12 +1486,12 @@
         <v>131</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="14.45" customHeight="1">
+    <row r="7" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
         <v>227</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>100</v>
@@ -1504,7 +1506,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="14.45" customHeight="1">
+    <row r="8" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
@@ -1524,7 +1526,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="14.45" customHeight="1">
+    <row r="9" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
         <v>23</v>
       </c>
@@ -1544,7 +1546,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>24</v>
       </c>
@@ -1555,7 +1557,7 @@
         <v>99</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>7</v>
@@ -1564,7 +1566,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="14.45" customHeight="1">
+    <row r="11" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>26</v>
       </c>
@@ -1584,7 +1586,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="14.45" customHeight="1">
+    <row r="12" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>28</v>
       </c>
@@ -1604,14 +1606,14 @@
         <v>136</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="D13" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>257</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>258</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>175</v>
@@ -1620,7 +1622,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="14.45" customHeight="1">
+    <row r="14" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>188</v>
       </c>
@@ -1638,7 +1640,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="14.45" customHeight="1">
+    <row r="15" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>194</v>
       </c>
@@ -1646,10 +1648,10 @@
         <v>189</v>
       </c>
       <c r="D15" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>261</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>262</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>177</v>
@@ -1658,7 +1660,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="14.45" customHeight="1">
+    <row r="16" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>193</v>
       </c>
@@ -1678,7 +1680,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="14.45" customHeight="1">
+    <row r="17" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>192</v>
       </c>
@@ -1698,14 +1700,14 @@
         <v>141</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="14.45" customHeight="1">
+    <row r="18" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="D18" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="E18" s="5" t="s">
         <v>269</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>270</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>162</v>
@@ -1714,7 +1716,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="14.45" customHeight="1">
+    <row r="19" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
         <v>47</v>
       </c>
@@ -1732,7 +1734,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>2</v>
       </c>
@@ -1749,10 +1751,10 @@
         <v>223</v>
       </c>
       <c r="H20" s="14" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="14.45" customHeight="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>241</v>
       </c>
@@ -1772,7 +1774,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="14.45" customHeight="1">
+    <row r="22" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>48</v>
       </c>
@@ -1792,7 +1794,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="14.45" customHeight="1">
+    <row r="23" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>238</v>
       </c>
@@ -1812,7 +1814,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="14.45" customHeight="1">
+    <row r="24" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>51</v>
       </c>
@@ -1832,7 +1834,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="14.45" customHeight="1">
+    <row r="25" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>55</v>
       </c>
@@ -1852,7 +1854,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="14.45" customHeight="1">
+    <row r="26" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>54</v>
       </c>
@@ -1866,13 +1868,13 @@
         <v>70</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D27" s="2" t="s">
         <v>84</v>
       </c>
@@ -1886,7 +1888,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="14.45" customHeight="1">
+    <row r="28" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="16" t="s">
         <v>107</v>
       </c>
@@ -1898,18 +1900,18 @@
         <v>72</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="14.45" customHeight="1">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>253</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>254</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>236</v>
@@ -1924,7 +1926,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="14.45" customHeight="1">
+    <row r="30" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>117</v>
       </c>
@@ -1944,7 +1946,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="14.45" customHeight="1">
+    <row r="31" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>9</v>
       </c>
@@ -1961,10 +1963,10 @@
         <v>215</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="14.45" customHeight="1">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>118</v>
       </c>
@@ -1975,7 +1977,7 @@
         <v>222</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G32" s="8" t="s">
         <v>216</v>
@@ -1984,7 +1986,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>119</v>
       </c>
@@ -1992,10 +1994,10 @@
         <v>114</v>
       </c>
       <c r="D33" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="E33" s="3" t="s">
         <v>259</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>260</v>
       </c>
       <c r="G33" s="8" t="s">
         <v>217</v>
@@ -2004,7 +2006,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>120</v>
       </c>
@@ -2024,7 +2026,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="14.45" customHeight="1">
+    <row r="35" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>121</v>
       </c>
@@ -2038,13 +2040,13 @@
         <v>105</v>
       </c>
       <c r="G35" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="H35" s="9" t="s">
         <v>276</v>
       </c>
-      <c r="H35" s="9" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="14.45" customHeight="1">
+    </row>
+    <row r="36" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>122</v>
       </c>
@@ -2058,7 +2060,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="14.45" customHeight="1">
+    <row r="37" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>123</v>
       </c>
@@ -2076,7 +2078,7 @@
       </c>
       <c r="H37" s="25"/>
     </row>
-    <row r="38" spans="1:8" ht="14.45" customHeight="1">
+    <row r="38" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>124</v>
       </c>
@@ -2096,7 +2098,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="14.45" customHeight="1">
+    <row r="39" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>125</v>
       </c>
@@ -2116,12 +2118,12 @@
         <v>180</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="14.45" customHeight="1">
+    <row r="40" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D40" s="8" t="s">
         <v>224</v>
@@ -2136,7 +2138,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="14.45" customHeight="1">
+    <row r="41" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D41" s="8" t="s">
         <v>226</v>
       </c>
@@ -2147,10 +2149,10 @@
         <v>184</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="15" t="s">
         <v>195</v>
       </c>
@@ -2168,12 +2170,12 @@
         <v>182</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B43" s="3" t="s">
         <v>263</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>264</v>
       </c>
       <c r="D43" s="8" t="s">
         <v>219</v>
@@ -2188,7 +2190,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>198</v>
       </c>
@@ -2199,10 +2201,10 @@
         <v>204</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="13" t="s">
         <v>197</v>
       </c>
@@ -2220,7 +2222,7 @@
       </c>
       <c r="H45" s="15"/>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="8" t="s">
         <v>231</v>
       </c>
@@ -2240,18 +2242,18 @@
         <v>36</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D47" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="E47" s="9" t="s">
         <v>247</v>
-      </c>
-      <c r="E47" s="9" t="s">
-        <v>248</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>33</v>
@@ -2260,18 +2262,18 @@
         <v>34</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="B48" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="B48" s="9" t="s">
-        <v>266</v>
-      </c>
       <c r="D48" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>37</v>
@@ -2280,12 +2282,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="15.75" thickBot="1">
+    <row r="49" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D49" s="8" t="s">
         <v>233</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>39</v>
@@ -2294,18 +2296,18 @@
         <v>40</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="17" t="s">
         <v>11</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D50" s="8" t="s">
         <v>233</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>41</v>
@@ -2314,7 +2316,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="19" t="s">
         <v>31</v>
       </c>
@@ -2328,7 +2330,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="15.75" thickBot="1">
+    <row r="52" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="21" t="s">
         <v>203</v>
       </c>

--- a/IntelliJ-Shortcuts.xlsx
+++ b/IntelliJ-Shortcuts.xlsx
@@ -1356,7 +1356,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A25" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -2343,7 +2343,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" scale="72" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"-,Fett"&amp;14IntelliJ Shortcuts</oddHeader>

--- a/IntelliJ-Shortcuts.xlsx
+++ b/IntelliJ-Shortcuts.xlsx
@@ -118,48 +118,12 @@
     <t>Debugging</t>
   </si>
   <si>
-    <t>Smart step into / Step out</t>
-  </si>
-  <si>
-    <t>Shift + F7 / Shift + F8</t>
-  </si>
-  <si>
-    <t>Step over / into</t>
-  </si>
-  <si>
-    <t>F8 / F7</t>
-  </si>
-  <si>
-    <t>Run to cursor</t>
-  </si>
-  <si>
-    <t>Alt + F9</t>
-  </si>
-  <si>
-    <t>Evaluate expression</t>
-  </si>
-  <si>
-    <t>Alt + F8</t>
-  </si>
-  <si>
     <t>Resume program</t>
   </si>
   <si>
     <t>F9</t>
   </si>
   <si>
-    <t>Toggle breakpoint</t>
-  </si>
-  <si>
-    <t>Ctrl + F8</t>
-  </si>
-  <si>
-    <t>View breakpoints</t>
-  </si>
-  <si>
-    <t>Ctrl + Shift + F8</t>
-  </si>
-  <si>
     <t>Search / Replace</t>
   </si>
   <si>
@@ -860,6 +824,42 @@
   </si>
   <si>
     <t>Terminal (toogle)</t>
+  </si>
+  <si>
+    <t>Step into / Smart step into</t>
+  </si>
+  <si>
+    <t>F7 / Shift + F7</t>
+  </si>
+  <si>
+    <t>Step over / Step out</t>
+  </si>
+  <si>
+    <t>F8 / Shift + F8</t>
+  </si>
+  <si>
+    <t>Rerun</t>
+  </si>
+  <si>
+    <t>Ctrl + F5</t>
+  </si>
+  <si>
+    <t>Move Caret to matching Brace</t>
+  </si>
+  <si>
+    <t>Ctrl + Shift + M</t>
+  </si>
+  <si>
+    <t>Evaluate expression / Run to cursor</t>
+  </si>
+  <si>
+    <t>Alt + F8 / Alt + F9</t>
+  </si>
+  <si>
+    <t>Ctrl + F8 / Ctrl + Shift + F8</t>
+  </si>
+  <si>
+    <t>Toggle breakpoint / View breakpoints</t>
   </si>
 </sst>
 </file>
@@ -1015,7 +1015,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1048,6 +1048,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1354,10 +1356,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H52"/>
+  <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A25" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A31" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1378,11 +1380,11 @@
       </c>
       <c r="B1" s="25"/>
       <c r="D1" s="25" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="E1" s="25"/>
       <c r="G1" s="25" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="H1" s="25"/>
     </row>
@@ -1394,24 +1396,24 @@
         <v>14</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>0</v>
@@ -1420,10 +1422,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -1434,16 +1436,16 @@
         <v>16</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -1460,10 +1462,10 @@
         <v>5</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -1474,36 +1476,36 @@
         <v>20</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>6</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -1514,16 +1516,16 @@
         <v>22</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -1531,19 +1533,19 @@
         <v>23</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -1554,10 +1556,10 @@
         <v>25</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>7</v>
@@ -1574,16 +1576,16 @@
         <v>27</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -1594,144 +1596,144 @@
         <v>29</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="D13" s="2" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="B14" s="10"/>
       <c r="D14" s="2" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="D18" s="4" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="B19" s="15"/>
       <c r="D19" s="2" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -1742,208 +1744,208 @@
         <v>3</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="H20" s="14" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>144</v>
+        <v>54</v>
+      </c>
+      <c r="G21" s="26" t="s">
+        <v>275</v>
+      </c>
+      <c r="H21" s="27" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>277</v>
+        <v>144</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D27" s="2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>155</v>
+        <v>265</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="16" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="B28" s="16"/>
       <c r="D28" s="2" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>279</v>
+        <v>143</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>278</v>
+        <v>138</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>154</v>
+        <v>267</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>151</v>
+        <v>266</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -1954,346 +1956,346 @@
         <v>10</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="G31" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="H31" s="9" t="s">
-        <v>267</v>
+        <v>62</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="H32" s="9" t="s">
-        <v>205</v>
+        <v>255</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="H33" s="9" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>275</v>
+        <v>199</v>
       </c>
       <c r="H35" s="9" t="s">
-        <v>276</v>
+        <v>200</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>106</v>
+        <v>94</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="H36" s="9" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="G37" s="25" t="s">
-        <v>178</v>
-      </c>
-      <c r="H37" s="25"/>
+        <v>64</v>
+      </c>
     </row>
     <row r="38" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="H38" s="3" t="s">
-        <v>179</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="G38" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="H38" s="25"/>
     </row>
     <row r="39" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="8" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D41" s="8" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>254</v>
+        <v>169</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="15" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="B42" s="15"/>
       <c r="D42" s="8" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>182</v>
+        <v>242</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="G43" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="H43" s="12" t="s">
-        <v>214</v>
+        <v>206</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>255</v>
+        <v>243</v>
+      </c>
+      <c r="G44" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="H44" s="12" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="13" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="G45" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="H45" s="15"/>
+        <v>223</v>
+      </c>
+      <c r="G45" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="H45" s="9" t="s">
+        <v>274</v>
+      </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="8" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>36</v>
+        <v>220</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="8" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>34</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="G47" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H47" s="15"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="8" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>37</v>
+        <v>269</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>38</v>
+        <v>270</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D49" s="8" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>39</v>
+        <v>271</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>40</v>
+        <v>272</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
@@ -2301,19 +2303,19 @@
         <v>11</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="D50" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="E50" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="E50" s="9" t="s">
-        <v>245</v>
-      </c>
       <c r="G50" s="2" t="s">
-        <v>41</v>
+        <v>277</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>42</v>
+        <v>278</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
@@ -2324,23 +2326,27 @@
         <v>30</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="21" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="B52" s="22"/>
       <c r="G52" s="2" t="s">
-        <v>45</v>
+        <v>280</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>46</v>
-      </c>
+        <v>279</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.19685039370078741"/>

--- a/IntelliJ-Shortcuts.xlsx
+++ b/IntelliJ-Shortcuts.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="36" windowWidth="22116" windowHeight="9552"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="22110" windowHeight="9555"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -133,21 +133,9 @@
     <t>F3 / Shift + F3</t>
   </si>
   <si>
-    <t>Alt + J</t>
-  </si>
-  <si>
-    <t>Select next occurrence</t>
-  </si>
-  <si>
     <t>Ctrl + Alt + Shift + J</t>
   </si>
   <si>
-    <t>Alt + Shift + J</t>
-  </si>
-  <si>
-    <t>Unselect occurrence</t>
-  </si>
-  <si>
     <t>Select all occurrences</t>
   </si>
   <si>
@@ -361,12 +349,6 @@
     <t>Extract Parameter</t>
   </si>
   <si>
-    <t>Ctrl + N</t>
-  </si>
-  <si>
-    <t>Ctrl + Shift + N</t>
-  </si>
-  <si>
     <t>Navigation</t>
   </si>
   <si>
@@ -478,12 +460,6 @@
     <t>Open quick definition lookup</t>
   </si>
   <si>
-    <t>Go to class</t>
-  </si>
-  <si>
-    <t>Go to file</t>
-  </si>
-  <si>
     <t>Go to symbol</t>
   </si>
   <si>
@@ -634,9 +610,6 @@
     <t>Stretch to… (expand/reduce tool window)</t>
   </si>
   <si>
-    <t>Switcher (Next/Previous editor tab)</t>
-  </si>
-  <si>
     <t>Ctrl + Shift + Up/Down</t>
   </si>
   <si>
@@ -838,12 +811,6 @@
     <t>F8 / Shift + F8</t>
   </si>
   <si>
-    <t>Rerun</t>
-  </si>
-  <si>
-    <t>Ctrl + F5</t>
-  </si>
-  <si>
     <t>Move Caret to matching Brace</t>
   </si>
   <si>
@@ -860,6 +827,39 @@
   </si>
   <si>
     <t>Toggle breakpoint / View breakpoints</t>
+  </si>
+  <si>
+    <t>Switcher (Next/Previous editor tab/tool win)</t>
+  </si>
+  <si>
+    <t>Stop / Rerun</t>
+  </si>
+  <si>
+    <t>Ctrl + F2 / Ctrl + F5</t>
+  </si>
+  <si>
+    <t>Alt + J / Alt + Shift + J</t>
+  </si>
+  <si>
+    <t>Select next/Unselect occurrence</t>
+  </si>
+  <si>
+    <t>Windowed Mode</t>
+  </si>
+  <si>
+    <t>Alt + Shift + Q</t>
+  </si>
+  <si>
+    <t>Ctrl + N / Ctrl + Shift + N</t>
+  </si>
+  <si>
+    <t>Go to class / Go to file</t>
+  </si>
+  <si>
+    <t>Mute Breakpoints</t>
+  </si>
+  <si>
+    <t>Alt + Shift + M</t>
   </si>
 </sst>
 </file>
@@ -1015,7 +1015,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1050,6 +1050,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1356,39 +1358,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H53"/>
+  <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A31" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.6640625" customWidth="1"/>
-    <col min="4" max="4" width="39.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.6640625" customWidth="1"/>
-    <col min="7" max="7" width="38.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.7109375" customWidth="1"/>
+    <col min="4" max="4" width="39.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.7109375" customWidth="1"/>
+    <col min="7" max="7" width="38.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" s="25" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="25"/>
       <c r="D1" s="25" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E1" s="25"/>
       <c r="G1" s="25" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="H1" s="25"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
@@ -1396,24 +1398,24 @@
         <v>14</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>153</v>
+        <v>278</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>0</v>
@@ -1422,13 +1424,13 @@
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
@@ -1436,19 +1438,19 @@
         <v>16</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
@@ -1462,13 +1464,13 @@
         <v>5</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>19</v>
       </c>
@@ -1476,479 +1478,481 @@
         <v>20</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>6</v>
       </c>
       <c r="G6" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>251</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>276</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>207</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="D14" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>260</v>
-      </c>
-      <c r="D7" s="2" t="s">
+      <c r="H14" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="B15" s="10"/>
+      <c r="D15" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="D19" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="H19" s="14" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="15"/>
+      <c r="D20" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G20" s="26" t="s">
+        <v>264</v>
+      </c>
+      <c r="H20" s="27" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E23" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>208</v>
-      </c>
-      <c r="D9" s="23" t="s">
+      <c r="G23" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="E9" s="24" t="s">
-        <v>216</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="D13" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="B14" s="10"/>
-      <c r="D14" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="H17" s="3" t="s">
+      <c r="B24" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="H24" s="3" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="D18" s="4" t="s">
+    <row r="25" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G26" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="E18" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="15"/>
-      <c r="D19" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="H19" s="3" t="s">
+      <c r="H26" s="3" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G20" s="13" t="s">
-        <v>211</v>
-      </c>
-      <c r="H20" s="14" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G21" s="26" t="s">
-        <v>275</v>
-      </c>
-      <c r="H21" s="27" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E22" s="3" t="s">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="D27" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E27" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="G22" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="H22" s="3" t="s">
+      <c r="G27" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H27" s="3" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D27" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="16" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B28" s="16"/>
       <c r="D28" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>143</v>
+        <v>258</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>267</v>
+        <v>136</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>9</v>
       </c>
@@ -1956,369 +1960,369 @@
         <v>10</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E31" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="E32" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="H32" s="9" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="H33" s="9" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="H35" s="9" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="G31" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D32" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="E32" s="14" t="s">
-        <v>258</v>
-      </c>
-      <c r="G32" s="8" t="s">
+      <c r="E36" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G37" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="H37" s="25"/>
+    </row>
+    <row r="38" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="D40" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="H32" s="9" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="G33" s="8" t="s">
+      <c r="E40" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D41" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="E41" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="H33" s="9" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="G34" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="H34" s="9" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="G35" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="H35" s="9" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="G36" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="H36" s="9" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D38" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="E38" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="G38" s="25" t="s">
-        <v>166</v>
-      </c>
-      <c r="H38" s="25"/>
-    </row>
-    <row r="39" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D39" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="E39" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="G39" s="2" t="s">
+      <c r="G41" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="15" t="s">
         <v>175</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="E40" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="H40" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D41" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="E41" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="15" t="s">
-        <v>183</v>
       </c>
       <c r="B42" s="15"/>
       <c r="D42" s="8" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="H42" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B43" s="3" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>251</v>
-      </c>
       <c r="D43" s="8" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+        <v>197</v>
+      </c>
+      <c r="G43" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="H43" s="12" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="B44" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D44" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="D44" s="8" t="s">
-        <v>192</v>
-      </c>
       <c r="E44" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="H44" s="9" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="G46" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H46" s="15"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="G44" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="H44" s="12" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="B45" s="14" t="s">
-        <v>209</v>
-      </c>
-      <c r="D45" s="8" t="s">
+      <c r="B48" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="E48" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="E45" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="G45" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="H45" s="9" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="B46" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="E46" s="9" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="B47" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="E47" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="G47" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="H47" s="15"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="B48" s="9" t="s">
+      <c r="G48" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D49" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="E49" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="D48" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="E48" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D49" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="E49" s="9" t="s">
-        <v>262</v>
-      </c>
       <c r="G49" s="2" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="17" t="s">
         <v>11</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>277</v>
+        <v>33</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="19" t="s">
         <v>31</v>
       </c>
@@ -2326,27 +2330,23 @@
         <v>30</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>33</v>
+        <v>269</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="21" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="B52" s="22"/>
-      <c r="G52" s="2" t="s">
+      <c r="G52" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="H52" s="12" t="s">
         <v>280</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.19685039370078741"/>

--- a/IntelliJ-Shortcuts.xlsx
+++ b/IntelliJ-Shortcuts.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="285">
   <si>
     <t>Smart code completion</t>
   </si>
@@ -860,6 +860,18 @@
   </si>
   <si>
     <t>Alt + Shift + M</t>
+  </si>
+  <si>
+    <t>Decrease / Increase Font Size</t>
+  </si>
+  <si>
+    <t>Ctrl + &lt; / Ctrl + Shift + &lt;</t>
+  </si>
+  <si>
+    <t>Reset Font Size</t>
+  </si>
+  <si>
+    <t>Ctrl + NumPad-0</t>
   </si>
 </sst>
 </file>
@@ -1360,8 +1372,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A28" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2329,6 +2341,12 @@
       <c r="B51" s="20" t="s">
         <v>30</v>
       </c>
+      <c r="D51" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="E51" s="12" t="s">
+        <v>282</v>
+      </c>
       <c r="G51" s="2" t="s">
         <v>269</v>
       </c>
@@ -2341,6 +2359,12 @@
         <v>183</v>
       </c>
       <c r="B52" s="22"/>
+      <c r="D52" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="E52" s="12" t="s">
+        <v>284</v>
+      </c>
       <c r="G52" s="11" t="s">
         <v>279</v>
       </c>
@@ -2349,11 +2373,11 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.19685039370078741"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" scale="72" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"-,Fett"&amp;14IntelliJ Shortcuts</oddHeader>
-    <oddFooter>&amp;CTool Windows: 1 Project / 2 Favorites / 4 Run / 5 Debug / 6 TODO / 7 Structure / 8 Hierarchy / 9 VCS / 0 Messages</oddFooter>
+    <oddFooter>&amp;CTool Windows: 1 Project / 2 Favorites / &amp;"-,Fett"&amp;K03+0003 Maven&amp;"-,Standard"&amp;K01+000 / 4 Run / 5 Debug / 6 TODO / 7 Structure / 8 Hierarchy / 9 VCS / 0 Messages</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/IntelliJ-Shortcuts.xlsx
+++ b/IntelliJ-Shortcuts.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="287">
   <si>
     <t>Smart code completion</t>
   </si>
@@ -872,6 +872,12 @@
   </si>
   <si>
     <t>Ctrl + NumPad-0</t>
+  </si>
+  <si>
+    <t>Move Caret to Next/Previous Word in Different "CamelHups" Mode</t>
+  </si>
+  <si>
+    <t>Ctrl + NumPad-4/NumPad-6</t>
   </si>
 </sst>
 </file>
@@ -1370,10 +1376,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H52"/>
+  <dimension ref="A1:H53"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" topLeftCell="A28" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2372,6 +2378,14 @@
         <v>280</v>
       </c>
     </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D53" s="26" t="s">
+        <v>285</v>
+      </c>
+      <c r="E53" s="27" t="s">
+        <v>286</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" scale="72" orientation="landscape" r:id="rId1"/>

--- a/IntelliJ-Shortcuts.xlsx
+++ b/IntelliJ-Shortcuts.xlsx
@@ -175,9 +175,6 @@
     <t>Tab / Shift + Tab</t>
   </si>
   <si>
-    <t>Ctrl + C , Ctrl + Insert</t>
-  </si>
-  <si>
     <t>Ctrl + V , Shift + Insert</t>
   </si>
   <si>
@@ -379,9 +376,6 @@
     <t>Alt + F1</t>
   </si>
   <si>
-    <t>Ctrl + B , Ctrl + Click</t>
-  </si>
-  <si>
     <t>Ctrl + Alt + B</t>
   </si>
   <si>
@@ -878,6 +872,12 @@
   </si>
   <si>
     <t>Ctrl + NumPad-4/NumPad-6</t>
+  </si>
+  <si>
+    <t>Ctrl + B, Ctrl + Click</t>
+  </si>
+  <si>
+    <t>Ctrl + C, Ctrl + Insert</t>
   </si>
 </sst>
 </file>
@@ -1379,7 +1379,7 @@
   <dimension ref="A1:H53"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" topLeftCell="A28" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1404,7 +1404,7 @@
       </c>
       <c r="E1" s="25"/>
       <c r="G1" s="25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H1" s="25"/>
     </row>
@@ -1416,24 +1416,24 @@
         <v>14</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>41</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>0</v>
@@ -1442,10 +1442,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1456,16 +1456,16 @@
         <v>16</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>42</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1482,10 +1482,10 @@
         <v>5</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1496,56 +1496,56 @@
         <v>20</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>6</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>43</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="28" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>47</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1556,10 +1556,10 @@
         <v>22</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>7</v>
@@ -1573,19 +1573,19 @@
         <v>23</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1596,16 +1596,16 @@
         <v>25</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>44</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1616,16 +1616,16 @@
         <v>27</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>45</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1636,126 +1636,126 @@
         <v>29</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>120</v>
+        <v>285</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="D14" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>46</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B15" s="10"/>
       <c r="D15" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="D19" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>48</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H19" s="14" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1764,16 +1764,16 @@
       </c>
       <c r="B20" s="15"/>
       <c r="D20" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>49</v>
       </c>
       <c r="G20" s="26" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H20" s="27" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1784,36 +1784,36 @@
         <v>3</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>50</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>51</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1824,56 +1824,56 @@
         <v>37</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>52</v>
+        <v>286</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1884,90 +1884,90 @@
         <v>38</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="D27" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B28" s="16"/>
       <c r="D28" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1978,288 +1978,288 @@
         <v>10</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H32" s="9" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H33" s="9" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="H35" s="9" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G37" s="25" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H37" s="25"/>
     </row>
     <row r="38" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E40" s="9" t="s">
         <v>45</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D41" s="8" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="15" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B42" s="15"/>
       <c r="D42" s="8" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G43" s="11" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H43" s="12" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H44" s="9" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="D46" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="B46" s="9" t="s">
+      <c r="E46" s="9" t="s">
         <v>209</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="E46" s="9" t="s">
-        <v>211</v>
       </c>
       <c r="G46" s="15" t="s">
         <v>32</v>
@@ -2268,56 +2268,56 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D49" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -2325,13 +2325,13 @@
         <v>11</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>33</v>
@@ -2348,42 +2348,42 @@
         <v>30</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E51" s="12" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="21" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B52" s="22"/>
       <c r="D52" s="11" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E52" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G52" s="11" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="H52" s="12" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D53" s="26" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E53" s="27" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
   </sheetData>

--- a/IntelliJ-Shortcuts.xlsx
+++ b/IntelliJ-Shortcuts.xlsx
@@ -1379,7 +1379,7 @@
   <dimension ref="A1:H53"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" topLeftCell="A28" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2391,7 +2391,7 @@
   <pageSetup paperSize="9" scale="72" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"-,Fett"&amp;14IntelliJ Shortcuts</oddHeader>
-    <oddFooter>&amp;CTool Windows: 1 Project / 2 Favorites / &amp;"-,Fett"&amp;K03+0003 Maven&amp;"-,Standard"&amp;K01+000 / 4 Run / 5 Debug / 6 TODO / 7 Structure / 8 Hierarchy / 9 VCS / 0 Messages</oddFooter>
+    <oddFooter>&amp;CTool Windows: 1 Project / 2 Favorites / &amp;K0000003 Find&amp;K01+000 / 4 Run / 5 Debug / 6 TODO / 7 Structure / 8 Hierarchy / 9 VCS / 0 Messages</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/IntelliJ-Shortcuts.xlsx
+++ b/IntelliJ-Shortcuts.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="285">
   <si>
     <t>Smart code completion</t>
   </si>
@@ -109,9 +109,6 @@
     <t>Ctrl + Shift + A</t>
   </si>
   <si>
-    <t>Shortcut added</t>
-  </si>
-  <si>
     <t>Reference fixed</t>
   </si>
   <si>
@@ -271,9 +268,6 @@
     <t>Quick documentation lookup</t>
   </si>
   <si>
-    <t>Parameter info (within method call arguments)</t>
-  </si>
-  <si>
     <t>Complete statement</t>
   </si>
   <si>
@@ -493,24 +487,6 @@
     <t>Ctrl + F9</t>
   </si>
   <si>
-    <t>Ctrl + Shift + F9</t>
-  </si>
-  <si>
-    <t>Alt + Shift + F10/F9</t>
-  </si>
-  <si>
-    <t>Ctrl + Shift + F10</t>
-  </si>
-  <si>
-    <t>Run context configuration from editor</t>
-  </si>
-  <si>
-    <t>Run / Debug</t>
-  </si>
-  <si>
-    <t>Select configuration and run / debug</t>
-  </si>
-  <si>
     <t>Compile selected file, package or module</t>
   </si>
   <si>
@@ -592,12 +568,6 @@
     <t>Ctrl + Shift + T</t>
   </si>
   <si>
-    <t>Debug context configuration from editor</t>
-  </si>
-  <si>
-    <t>Ctrl + Shift + F11</t>
-  </si>
-  <si>
     <t>File Path</t>
   </si>
   <si>
@@ -712,9 +682,6 @@
     <t>F5 / F6</t>
   </si>
   <si>
-    <t>Shift + F10/F9</t>
-  </si>
-  <si>
     <t>Ctrl + Z / Ctrl + Shift + Z</t>
   </si>
   <si>
@@ -868,9 +835,6 @@
     <t>Ctrl + NumPad-0</t>
   </si>
   <si>
-    <t>Move Caret to Next/Previous Word in Different "CamelHups" Mode</t>
-  </si>
-  <si>
     <t>Ctrl + NumPad-4/NumPad-6</t>
   </si>
   <si>
@@ -878,6 +842,36 @@
   </si>
   <si>
     <t>Ctrl + C, Ctrl + Insert</t>
+  </si>
+  <si>
+    <t>Shortcut added/changed</t>
+  </si>
+  <si>
+    <t>Ctrl + Alt + Shift + F9</t>
+  </si>
+  <si>
+    <t>Select configuration and debug / run</t>
+  </si>
+  <si>
+    <t>Alt + Shift + F9/F10</t>
+  </si>
+  <si>
+    <t>Shift + F9/F10</t>
+  </si>
+  <si>
+    <t>Debug / Run</t>
+  </si>
+  <si>
+    <t>Debug/Run context configuration from editor</t>
+  </si>
+  <si>
+    <t>Ctrl + Shift + F9/10</t>
+  </si>
+  <si>
+    <t>Move to Prev/Next Word without CamelHups</t>
+  </si>
+  <si>
+    <t>Parameter info (within method call args)</t>
   </si>
 </sst>
 </file>
@@ -1376,10 +1370,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H53"/>
+  <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A28" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A13" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1400,11 +1394,11 @@
       </c>
       <c r="B1" s="25"/>
       <c r="D1" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E1" s="25"/>
       <c r="G1" s="25" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H1" s="25"/>
     </row>
@@ -1416,24 +1410,24 @@
         <v>14</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>0</v>
@@ -1442,10 +1436,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1456,16 +1450,16 @@
         <v>16</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1482,10 +1476,10 @@
         <v>5</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1496,56 +1490,56 @@
         <v>20</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>84</v>
+        <v>284</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>6</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="28" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1556,10 +1550,10 @@
         <v>22</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>7</v>
@@ -1573,19 +1567,19 @@
         <v>23</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1596,16 +1590,16 @@
         <v>25</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1616,16 +1610,16 @@
         <v>27</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1636,144 +1630,144 @@
         <v>29</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="D14" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="B15" s="10"/>
       <c r="D15" s="2" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="D19" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="H19" s="14" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B20" s="15"/>
       <c r="D20" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G20" s="26" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="H20" s="27" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1784,190 +1778,190 @@
         <v>3</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>37</v>
-      </c>
       <c r="D23" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="D27" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="16" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B28" s="16"/>
       <c r="D28" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1978,346 +1972,346 @@
         <v>10</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="H32" s="9" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="H33" s="9" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="H35" s="9" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
+      </c>
+      <c r="G36" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="H36" s="12" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G37" s="25" t="s">
-        <v>156</v>
-      </c>
-      <c r="H37" s="25"/>
+        <v>58</v>
+      </c>
     </row>
     <row r="38" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="H38" s="3" t="s">
-        <v>157</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="G38" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="H38" s="25"/>
     </row>
     <row r="39" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="H40" s="3" t="s">
-        <v>159</v>
+        <v>44</v>
+      </c>
+      <c r="G40" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="H40" s="12" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D41" s="8" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>162</v>
+        <v>280</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>231</v>
+        <v>279</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="15" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="B42" s="15"/>
       <c r="D42" s="8" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>161</v>
+        <v>277</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>160</v>
+        <v>278</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="G43" s="11" t="s">
-        <v>191</v>
+        <v>281</v>
       </c>
       <c r="H43" s="12" t="s">
-        <v>192</v>
+        <v>282</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="B44" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D44" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="D44" s="8" t="s">
-        <v>182</v>
-      </c>
       <c r="E44" s="9" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="H44" s="9" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="G46" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H46" s="15"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D49" s="8" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -2325,65 +2319,57 @@
         <v>11</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="G50" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H50" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="H50" s="3" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B51" s="20" t="s">
-        <v>30</v>
+        <v>275</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="E51" s="12" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="21" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="B52" s="22"/>
       <c r="D52" s="11" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="E52" s="12" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="G52" s="11" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="H52" s="12" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D53" s="26" t="s">
-        <v>283</v>
-      </c>
-      <c r="E53" s="27" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>

--- a/IntelliJ-Shortcuts.xlsx
+++ b/IntelliJ-Shortcuts.xlsx
@@ -25,12 +25,6 @@
     <t>Ctrl + Shift + Space</t>
   </si>
   <si>
-    <t>Search everywhere</t>
-  </si>
-  <si>
-    <t>Double Shift</t>
-  </si>
-  <si>
     <t>Show intention actions and quick-fixes</t>
   </si>
   <si>
@@ -103,12 +97,6 @@
     <t>Ctrl + Alt + Shift + S</t>
   </si>
   <si>
-    <t>Find Action</t>
-  </si>
-  <si>
-    <t>Ctrl + Shift + A</t>
-  </si>
-  <si>
     <t>Reference fixed</t>
   </si>
   <si>
@@ -872,6 +860,18 @@
   </si>
   <si>
     <t>Parameter info (within method call args)</t>
+  </si>
+  <si>
+    <t>Double Shift / Ctrl + Shift + A</t>
+  </si>
+  <si>
+    <t>Search everywhere / Find Action</t>
+  </si>
+  <si>
+    <t>Find Word at Caret</t>
+  </si>
+  <si>
+    <t>Ctrl + F3</t>
   </si>
 </sst>
 </file>
@@ -1372,8 +1372,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A13" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1390,44 +1390,44 @@
   <sheetData>
     <row r="1" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" s="25" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B1" s="25"/>
       <c r="D1" s="25" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E1" s="25"/>
       <c r="G1" s="25" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="H1" s="25"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>0</v>
@@ -1436,940 +1436,938 @@
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="28" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>29</v>
-      </c>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
       <c r="D13" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="B14" s="10"/>
+      <c r="D14" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E15" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="D14" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="B15" s="10"/>
-      <c r="D15" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>227</v>
-      </c>
       <c r="G15" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>161</v>
-      </c>
       <c r="D18" s="4" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
+      <c r="A19" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="15"/>
       <c r="D19" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="H19" s="14" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" s="15"/>
+      <c r="A20" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>281</v>
+      </c>
       <c r="D20" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G20" s="26" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="H20" s="27" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
+      <c r="A21" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>203</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>208</v>
+        <v>31</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>207</v>
+        <v>32</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>35</v>
+        <v>283</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>36</v>
+        <v>284</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="D27" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="16" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B28" s="16"/>
       <c r="D28" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="H32" s="9" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="H33" s="9" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="H35" s="9" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="H36" s="12" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G38" s="25" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="H38" s="25"/>
     </row>
     <row r="39" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="H40" s="12" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D41" s="8" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="15" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B42" s="15"/>
       <c r="D42" s="8" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G43" s="11" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="H43" s="12" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="H44" s="9" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="G46" s="15" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H46" s="15"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D49" s="8" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="17" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="19" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B51" s="20" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E51" s="12" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="21" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B52" s="22"/>
       <c r="D52" s="11" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="E52" s="12" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="G52" s="11" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="H52" s="12" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>

--- a/IntelliJ-Shortcuts.xlsx
+++ b/IntelliJ-Shortcuts.xlsx
@@ -796,9 +796,6 @@
     <t>Windowed Mode</t>
   </si>
   <si>
-    <t>Alt + Shift + Q</t>
-  </si>
-  <si>
     <t>Ctrl + N / Ctrl + Shift + N</t>
   </si>
   <si>
@@ -872,6 +869,9 @@
   </si>
   <si>
     <t>Ctrl + F3</t>
+  </si>
+  <si>
+    <t>Ctrl + Alt + Ä</t>
   </si>
 </sst>
 </file>
@@ -1372,8 +1372,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A4" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1416,10 +1416,10 @@
         <v>36</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1490,7 +1490,7 @@
         <v>18</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>4</v>
@@ -1527,7 +1527,7 @@
         <v>258</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>259</v>
+        <v>284</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>71</v>
@@ -1635,7 +1635,7 @@
         <v>148</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1750,10 +1750,10 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>69</v>
@@ -1810,10 +1810,10 @@
     </row>
     <row r="23" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>283</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>284</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>66</v>
@@ -1839,7 +1839,7 @@
         <v>65</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>131</v>
@@ -2076,10 +2076,10 @@
         <v>83</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H36" s="12" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -2151,7 +2151,7 @@
         <v>152</v>
       </c>
       <c r="H40" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -2162,10 +2162,10 @@
         <v>188</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -2180,10 +2180,10 @@
         <v>168</v>
       </c>
       <c r="G42" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="H42" s="3" t="s">
         <v>273</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -2200,10 +2200,10 @@
         <v>181</v>
       </c>
       <c r="G43" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="H43" s="12" t="s">
         <v>277</v>
-      </c>
-      <c r="H43" s="12" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -2337,13 +2337,13 @@
         <v>26</v>
       </c>
       <c r="B51" s="20" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D51" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="E51" s="12" t="s">
         <v>264</v>
-      </c>
-      <c r="E51" s="12" t="s">
-        <v>265</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>252</v>
@@ -2358,16 +2358,16 @@
       </c>
       <c r="B52" s="22"/>
       <c r="D52" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="E52" s="12" t="s">
         <v>266</v>
       </c>
-      <c r="E52" s="12" t="s">
-        <v>267</v>
-      </c>
       <c r="G52" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="H52" s="12" t="s">
         <v>262</v>
-      </c>
-      <c r="H52" s="12" t="s">
-        <v>263</v>
       </c>
     </row>
   </sheetData>

--- a/IntelliJ-Shortcuts.xlsx
+++ b/IntelliJ-Shortcuts.xlsx
@@ -334,9 +334,6 @@
     <t>Ctrl + Alt + Shift + N</t>
   </si>
   <si>
-    <t>Alt + Right/Left</t>
-  </si>
-  <si>
     <t>F12</t>
   </si>
   <si>
@@ -349,9 +346,6 @@
     <t>Ctrl + G</t>
   </si>
   <si>
-    <t>Ctrl + Alt + Left/Right</t>
-  </si>
-  <si>
     <t>Ctrl + Shift + Backspace</t>
   </si>
   <si>
@@ -370,9 +364,6 @@
     <t>Ctrl + U</t>
   </si>
   <si>
-    <t>Alt + Up/Down</t>
-  </si>
-  <si>
     <t>Ctrl + F12</t>
   </si>
   <si>
@@ -523,18 +514,12 @@
     <t>Move Line Up/Down</t>
   </si>
   <si>
-    <t>Alt + Shift + Up/Down</t>
-  </si>
-  <si>
     <t>Reference added</t>
   </si>
   <si>
     <t>Undo/Redo</t>
   </si>
   <si>
-    <t>Ctrl + Shift + Arrow</t>
-  </si>
-  <si>
     <t>Ctrl + Tab / Ctrl + Shift + Tab</t>
   </si>
   <si>
@@ -562,9 +547,6 @@
     <t>Stretch to… (expand/reduce tool window)</t>
   </si>
   <si>
-    <t>Ctrl + Shift + Up/Down</t>
-  </si>
-  <si>
     <t>Move Statement Up/Down</t>
   </si>
   <si>
@@ -652,15 +634,9 @@
     <t>Alt + Shift + Mouse</t>
   </si>
   <si>
-    <t>Ctrl + Alt + Shift + Up/Down</t>
-  </si>
-  <si>
     <t>Previous/Next Change</t>
   </si>
   <si>
-    <t>Ctrl + Alt + Shift + Left/Right</t>
-  </si>
-  <si>
     <t>Move Element Left/Right</t>
   </si>
   <si>
@@ -727,9 +703,6 @@
     <t>Ctrl + Mouse</t>
   </si>
   <si>
-    <t>Double Ctrl + Arrow</t>
-  </si>
-  <si>
     <t>Scroll horizontally</t>
   </si>
   <si>
@@ -872,6 +845,33 @@
   </si>
   <si>
     <t>Ctrl + Alt + Ä</t>
+  </si>
+  <si>
+    <t>Ctrl + Alt + Shift + ←/→</t>
+  </si>
+  <si>
+    <t>Ctrl + Alt + Shift + ↑/↓</t>
+  </si>
+  <si>
+    <t>Alt + ←/→</t>
+  </si>
+  <si>
+    <t>Ctrl + Alt + ←/→</t>
+  </si>
+  <si>
+    <t>Alt + ↑/↓</t>
+  </si>
+  <si>
+    <t>Alt + Shift + ↑/↓</t>
+  </si>
+  <si>
+    <t>Ctrl + Shift + ↑/↓</t>
+  </si>
+  <si>
+    <t>Double Ctrl + ←/→/↑/↓</t>
+  </si>
+  <si>
+    <t>Ctrl + Shift + ←/→/↑/↓</t>
   </si>
 </sst>
 </file>
@@ -1372,8 +1372,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A4" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1416,18 +1416,18 @@
         <v>36</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>104</v>
@@ -1456,10 +1456,10 @@
         <v>37</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>105</v>
+        <v>278</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1476,10 +1476,10 @@
         <v>3</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1490,24 +1490,24 @@
         <v>18</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>4</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>78</v>
@@ -1516,18 +1516,18 @@
         <v>38</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="28" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>71</v>
@@ -1536,10 +1536,10 @@
         <v>42</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1550,10 +1550,10 @@
         <v>20</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>5</v>
@@ -1567,19 +1567,19 @@
         <v>21</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>77</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>110</v>
+        <v>279</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1596,10 +1596,10 @@
         <v>39</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1616,31 +1616,31 @@
         <v>40</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="D13" s="2" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B14" s="10"/>
       <c r="D14" s="2" t="s">
@@ -1650,84 +1650,84 @@
         <v>41</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>73</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>72</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D18" s="4" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>117</v>
+        <v>280</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1742,18 +1742,18 @@
         <v>43</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="H19" s="14" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>69</v>
@@ -1762,18 +1762,18 @@
         <v>44</v>
       </c>
       <c r="G20" s="26" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="H20" s="27" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>68</v>
@@ -1782,10 +1782,10 @@
         <v>45</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1802,18 +1802,18 @@
         <v>46</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>66</v>
@@ -1822,38 +1822,38 @@
         <v>81</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>65</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>64</v>
@@ -1862,10 +1862,10 @@
         <v>47</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1882,10 +1882,10 @@
         <v>48</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -1898,10 +1898,10 @@
         <v>49</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1916,30 +1916,30 @@
         <v>50</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1956,10 +1956,10 @@
         <v>51</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1976,10 +1976,10 @@
         <v>52</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1990,16 +1990,16 @@
         <v>92</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="H32" s="9" t="s">
-        <v>171</v>
+        <v>284</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -2010,16 +2010,16 @@
         <v>91</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="H33" s="9" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -2036,10 +2036,10 @@
         <v>53</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -2056,10 +2056,10 @@
         <v>82</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="H35" s="9" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -2076,10 +2076,10 @@
         <v>83</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="H36" s="12" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -2104,13 +2104,13 @@
         <v>86</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="G38" s="25" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="H38" s="25"/>
     </row>
@@ -2122,136 +2122,136 @@
         <v>85</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>213</v>
+        <v>276</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="E40" s="9" t="s">
         <v>40</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H40" s="12" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D41" s="8" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="15" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B42" s="15"/>
       <c r="D42" s="8" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>168</v>
+        <v>281</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>181</v>
+        <v>282</v>
       </c>
       <c r="G43" s="11" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="H43" s="12" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="H44" s="9" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="G46" s="15" t="s">
         <v>27</v>
@@ -2260,56 +2260,56 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>211</v>
+        <v>277</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D49" s="8" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>236</v>
+        <v>283</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -2317,13 +2317,13 @@
         <v>9</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>28</v>
@@ -2337,37 +2337,37 @@
         <v>26</v>
       </c>
       <c r="B51" s="20" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="E51" s="12" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="21" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B52" s="22"/>
       <c r="D52" s="11" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="E52" s="12" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="G52" s="11" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="H52" s="12" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
     </row>
   </sheetData>

--- a/IntelliJ-Shortcuts.xlsx
+++ b/IntelliJ-Shortcuts.xlsx
@@ -685,9 +685,6 @@
     <t>Ctrl + Alt + F12</t>
   </si>
   <si>
-    <t>Extend/Shrink selection</t>
-  </si>
-  <si>
     <t>Ctrl + W / Ctrl + Shift + W</t>
   </si>
   <si>
@@ -872,6 +869,9 @@
   </si>
   <si>
     <t>Ctrl + Shift + ←/→/↑/↓</t>
+  </si>
+  <si>
+    <t>Extend / Shrink selection</t>
   </si>
 </sst>
 </file>
@@ -1373,7 +1373,7 @@
   <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1416,15 +1416,15 @@
         <v>36</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>199</v>
@@ -1459,7 +1459,7 @@
         <v>137</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1490,7 +1490,7 @@
         <v>18</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>4</v>
@@ -1507,7 +1507,7 @@
         <v>184</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>78</v>
@@ -1524,10 +1524,10 @@
     </row>
     <row r="8" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="28" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>71</v>
@@ -1573,13 +1573,13 @@
         <v>77</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>142</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1635,7 +1635,7 @@
         <v>145</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1718,16 +1718,16 @@
     </row>
     <row r="18" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D18" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="E18" s="5" t="s">
         <v>222</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>223</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>132</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1745,15 +1745,15 @@
         <v>180</v>
       </c>
       <c r="H19" s="14" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>69</v>
@@ -1762,10 +1762,10 @@
         <v>44</v>
       </c>
       <c r="G20" s="26" t="s">
+        <v>237</v>
+      </c>
+      <c r="H20" s="27" t="s">
         <v>238</v>
-      </c>
-      <c r="H20" s="27" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1810,10 +1810,10 @@
     </row>
     <row r="23" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>273</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>274</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>66</v>
@@ -1839,7 +1839,7 @@
         <v>65</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>128</v>
@@ -1850,10 +1850,10 @@
     </row>
     <row r="25" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>64</v>
@@ -1882,7 +1882,7 @@
         <v>48</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>120</v>
@@ -1916,10 +1916,10 @@
         <v>50</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1993,13 +1993,13 @@
         <v>179</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G32" s="8" t="s">
         <v>175</v>
       </c>
       <c r="H32" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -2016,7 +2016,7 @@
         <v>213</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H33" s="9" t="s">
         <v>167</v>
@@ -2056,10 +2056,10 @@
         <v>82</v>
       </c>
       <c r="G35" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="H35" s="9" t="s">
         <v>228</v>
-      </c>
-      <c r="H35" s="9" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -2076,10 +2076,10 @@
         <v>83</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H36" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -2139,7 +2139,7 @@
         <v>206</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D40" s="8" t="s">
         <v>181</v>
@@ -2151,7 +2151,7 @@
         <v>149</v>
       </c>
       <c r="H40" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -2162,10 +2162,10 @@
         <v>182</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -2177,13 +2177,13 @@
         <v>164</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G42" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="H42" s="3" t="s">
         <v>263</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -2197,13 +2197,13 @@
         <v>176</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G43" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="H43" s="12" t="s">
         <v>267</v>
-      </c>
-      <c r="H43" s="12" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -2220,10 +2220,10 @@
         <v>209</v>
       </c>
       <c r="G44" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="H44" s="9" t="s">
         <v>245</v>
-      </c>
-      <c r="H44" s="9" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -2263,7 +2263,7 @@
         <v>205</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D47" s="8" t="s">
         <v>203</v>
@@ -2272,10 +2272,10 @@
         <v>204</v>
       </c>
       <c r="G47" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="H47" s="3" t="s">
         <v>234</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -2292,10 +2292,10 @@
         <v>200</v>
       </c>
       <c r="G48" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="H48" s="3" t="s">
         <v>236</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2303,13 +2303,13 @@
         <v>190</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G49" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="H49" s="3" t="s">
         <v>240</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -2337,19 +2337,19 @@
         <v>26</v>
       </c>
       <c r="B51" s="20" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D51" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="E51" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="E51" s="12" t="s">
-        <v>255</v>
-      </c>
       <c r="G51" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2358,16 +2358,16 @@
       </c>
       <c r="B52" s="22"/>
       <c r="D52" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="E52" s="12" t="s">
         <v>256</v>
       </c>
-      <c r="E52" s="12" t="s">
-        <v>257</v>
-      </c>
       <c r="G52" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="H52" s="12" t="s">
         <v>252</v>
-      </c>
-      <c r="H52" s="12" t="s">
-        <v>253</v>
       </c>
     </row>
   </sheetData>

--- a/IntelliJ-Shortcuts.xlsx
+++ b/IntelliJ-Shortcuts.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="284">
   <si>
     <t>Smart code completion</t>
   </si>
@@ -97,9 +97,6 @@
     <t>Ctrl + Alt + Shift + S</t>
   </si>
   <si>
-    <t>Reference fixed</t>
-  </si>
-  <si>
     <t>Debugging</t>
   </si>
   <si>
@@ -514,9 +511,6 @@
     <t>Move Line Up/Down</t>
   </si>
   <si>
-    <t>Reference added</t>
-  </si>
-  <si>
     <t>Undo/Redo</t>
   </si>
   <si>
@@ -679,9 +673,6 @@
     <t>Ctrl + Alt + Z</t>
   </si>
   <si>
-    <t>Shortcut fixed</t>
-  </si>
-  <si>
     <t>Ctrl + Alt + F12</t>
   </si>
   <si>
@@ -872,6 +863,12 @@
   </si>
   <si>
     <t>Extend / Shrink selection</t>
+  </si>
+  <si>
+    <t>Maven Projects</t>
+  </si>
+  <si>
+    <t>Alt + Shift + Q, B</t>
   </si>
 </sst>
 </file>
@@ -895,7 +892,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -914,26 +911,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -961,109 +940,35 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="20" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1372,8 +1277,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A10" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1389,18 +1294,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="D1" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" s="25"/>
-      <c r="G1" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="H1" s="25"/>
+      <c r="B1" s="13"/>
+      <c r="D1" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="13"/>
+      <c r="G1" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="H1" s="13"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -1410,24 +1315,24 @@
         <v>12</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>199</v>
+      <c r="A3" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>283</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>0</v>
@@ -1436,38 +1341,38 @@
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>13</v>
+        <v>229</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>14</v>
+        <v>197</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>2</v>
@@ -1476,84 +1381,84 @@
         <v>3</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>4</v>
       </c>
       <c r="G6" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H7" s="3" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
+    <row r="8" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>271</v>
+      </c>
+      <c r="D9" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="B7" s="14" t="s">
-        <v>225</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
-        <v>248</v>
-      </c>
-      <c r="B8" s="29" t="s">
-        <v>274</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="E9" s="24" t="s">
-        <v>185</v>
+      <c r="E9" s="12" t="s">
+        <v>183</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>5</v>
@@ -1563,117 +1468,117 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="G10" s="2" t="s">
+      <c r="B11" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>143</v>
-      </c>
       <c r="H11" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B13" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E12" s="5" t="s">
+      <c r="D13" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="D14" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G12" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="H12" s="3" t="s">
+      <c r="G14" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="H14" s="3" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="D13" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="B14" s="10"/>
-      <c r="D14" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="H14" s="3" t="s">
+    <row r="15" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="D15" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="H15" s="3" t="s">
         <v>111</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1681,19 +1586,19 @@
         <v>156</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>162</v>
+        <v>151</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>161</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1701,673 +1606,673 @@
         <v>155</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="D17" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="H17" s="3" t="s">
+      <c r="B18" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D19" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="9"/>
+      <c r="D20" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="H21" s="3" t="s">
         <v>114</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D18" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" s="15"/>
-      <c r="D19" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G19" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="H19" s="14" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G20" s="26" t="s">
-        <v>237</v>
-      </c>
-      <c r="H20" s="27" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>31</v>
+        <v>196</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>32</v>
+        <v>195</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>272</v>
+        <v>30</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>273</v>
+        <v>31</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>195</v>
+        <v>269</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>196</v>
+        <v>270</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>247</v>
+        <v>193</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>246</v>
+        <v>194</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>34</v>
+        <v>244</v>
       </c>
       <c r="B26" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E26" s="3" t="s">
+      <c r="B27" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E27" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G26" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="H26" s="3" t="s">
+      <c r="G27" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="H27" s="3" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="D27" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E27" s="3" t="s">
+    <row r="28" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="D28" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E28" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="G27" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="H27" s="3" t="s">
+      <c r="G28" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B29" s="10"/>
+      <c r="D29" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H29" s="3" t="s">
         <v>121</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="B28" s="16"/>
-      <c r="D28" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>94</v>
+        <v>205</v>
       </c>
       <c r="B30" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E30" s="3" t="s">
+      <c r="B31" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E31" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="G30" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
+      <c r="G31" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B32" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="G31" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="H31" s="9" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D32" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="E32" s="14" t="s">
-        <v>223</v>
-      </c>
-      <c r="G32" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="H32" s="9" t="s">
-        <v>283</v>
+      <c r="D32" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>91</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="G33" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="H33" s="9" t="s">
-        <v>167</v>
+        <v>211</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>90</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G34" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="H34" s="9" t="s">
-        <v>173</v>
+        <v>52</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>89</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="G35" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="H35" s="9" t="s">
-        <v>228</v>
+        <v>81</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>88</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="G36" s="11" t="s">
-        <v>268</v>
-      </c>
-      <c r="H36" s="12" t="s">
-        <v>257</v>
+        <v>82</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="H36" s="8" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>87</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D38" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="E38" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="G38" s="25" t="s">
-        <v>147</v>
-      </c>
-      <c r="H38" s="25"/>
+      <c r="D38" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="G38" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="H38" s="13"/>
     </row>
     <row r="39" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D39" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="E39" s="12" t="s">
-        <v>171</v>
+      <c r="D39" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>169</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H39" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G40" s="7" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>275</v>
-      </c>
-      <c r="D40" s="8" t="s">
+      <c r="H40" s="8" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="E40" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="G40" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="H40" s="12" t="s">
+      <c r="E41" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="H41" s="3" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D41" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="E41" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="H41" s="3" t="s">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D42" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="B43" s="9"/>
+      <c r="D43" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="H43" s="8" t="s">
         <v>264</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="B42" s="15"/>
-      <c r="D42" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>280</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="E43" s="9" t="s">
-        <v>281</v>
-      </c>
-      <c r="G43" s="11" t="s">
-        <v>266</v>
-      </c>
-      <c r="H43" s="12" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>161</v>
+        <v>214</v>
       </c>
       <c r="B44" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="D44" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="E44" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="G44" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="H44" s="9" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="B45" s="14" t="s">
-        <v>178</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="E45" s="9" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="8" t="s">
+      <c r="B46" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B46" s="9" t="s">
+      <c r="E46" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="D46" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="E46" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="G46" s="15" t="s">
+      <c r="G46" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H46" s="9"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="16"/>
+      <c r="B50" s="16"/>
+      <c r="D50" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="G50" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H46" s="15"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="B47" s="9" t="s">
-        <v>276</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="E47" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="B48" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="D48" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="E48" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D49" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="E49" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="G49" s="2" t="s">
+      <c r="H50" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="16"/>
+      <c r="B51" s="16"/>
+      <c r="D51" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="G51" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="17" t="s">
+      <c r="H51" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B50" s="18" t="s">
-        <v>220</v>
-      </c>
-      <c r="D50" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="E50" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H50" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B51" s="20" t="s">
-        <v>260</v>
-      </c>
-      <c r="D51" s="11" t="s">
+      <c r="B52" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="E52" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="E51" s="12" t="s">
-        <v>254</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="H51" s="3" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="B52" s="22"/>
-      <c r="D52" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="E52" s="12" t="s">
-        <v>256</v>
-      </c>
-      <c r="G52" s="11" t="s">
-        <v>251</v>
-      </c>
-      <c r="H52" s="12" t="s">
-        <v>252</v>
+      <c r="G52" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="H52" s="8" t="s">
+        <v>249</v>
       </c>
     </row>
   </sheetData>

--- a/IntelliJ-Shortcuts.xlsx
+++ b/IntelliJ-Shortcuts.xlsx
@@ -382,18 +382,12 @@
     <t>Alt + Home</t>
   </si>
   <si>
-    <t>Ctrl + #[0-9]</t>
-  </si>
-  <si>
     <t>Show bookmarks</t>
   </si>
   <si>
     <t>Shift + F11</t>
   </si>
   <si>
-    <t>Go to numbered bookmark</t>
-  </si>
-  <si>
     <t>Show navigation bar</t>
   </si>
   <si>
@@ -869,6 +863,12 @@
   </si>
   <si>
     <t>Alt + Shift + Q, B</t>
+  </si>
+  <si>
+    <t>Go to/create numbered bookmark</t>
+  </si>
+  <si>
+    <t>Ctrl + #[0-9] / Ctrl + Shift + #[0-9]</t>
   </si>
 </sst>
 </file>
@@ -1277,20 +1277,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A10" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.7109375" customWidth="1"/>
-    <col min="4" max="4" width="39.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.7109375" customWidth="1"/>
-    <col min="7" max="7" width="38.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.7109375" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" customWidth="1"/>
+    <col min="3" max="3" width="3.28515625" customWidth="1"/>
+    <col min="4" max="4" width="37.85546875" customWidth="1"/>
+    <col min="5" max="5" width="22.85546875" customWidth="1"/>
+    <col min="6" max="6" width="3.28515625" customWidth="1"/>
+    <col min="7" max="7" width="37.5703125" customWidth="1"/>
+    <col min="8" max="8" width="27.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
@@ -1321,18 +1321,18 @@
         <v>35</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>103</v>
@@ -1349,10 +1349,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>78</v>
@@ -1361,10 +1361,10 @@
         <v>36</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1381,7 +1381,7 @@
         <v>3</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>104</v>
@@ -1395,13 +1395,13 @@
         <v>16</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>4</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>105</v>
@@ -1421,7 +1421,7 @@
         <v>37</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>106</v>
@@ -1429,10 +1429,10 @@
     </row>
     <row r="8" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>70</v>
@@ -1441,7 +1441,7 @@
         <v>41</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>107</v>
@@ -1449,16 +1449,16 @@
     </row>
     <row r="9" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>5</v>
@@ -1478,13 +1478,13 @@
         <v>76</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1492,7 +1492,7 @@
         <v>21</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>75</v>
@@ -1501,7 +1501,7 @@
         <v>38</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>108</v>
@@ -1521,7 +1521,7 @@
         <v>39</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>109</v>
@@ -1535,16 +1535,16 @@
         <v>25</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1557,7 +1557,7 @@
         <v>40</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>110</v>
@@ -1565,17 +1565,17 @@
     </row>
     <row r="15" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B15" s="6"/>
       <c r="D15" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>111</v>
@@ -1583,19 +1583,19 @@
     </row>
     <row r="16" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>72</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>112</v>
@@ -1603,19 +1603,19 @@
     </row>
     <row r="17" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>71</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>113</v>
@@ -1623,22 +1623,22 @@
     </row>
     <row r="18" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1649,10 +1649,10 @@
         <v>42</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1667,18 +1667,18 @@
         <v>43</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>67</v>
@@ -1687,7 +1687,7 @@
         <v>44</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>114</v>
@@ -1695,10 +1695,10 @@
     </row>
     <row r="22" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>66</v>
@@ -1707,7 +1707,7 @@
         <v>45</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>115</v>
@@ -1727,7 +1727,7 @@
         <v>80</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>116</v>
@@ -1735,19 +1735,19 @@
     </row>
     <row r="24" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>64</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>117</v>
@@ -1755,10 +1755,10 @@
     </row>
     <row r="25" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>63</v>
@@ -1767,7 +1767,7 @@
         <v>46</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H25" s="3" t="s">
         <v>118</v>
@@ -1775,10 +1775,10 @@
     </row>
     <row r="26" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>62</v>
@@ -1787,7 +1787,7 @@
         <v>47</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>119</v>
@@ -1807,7 +1807,7 @@
         <v>48</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>120</v>
@@ -1823,10 +1823,10 @@
         <v>49</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1835,24 +1835,24 @@
       </c>
       <c r="B29" s="10"/>
       <c r="D29" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>124</v>
+        <v>282</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>121</v>
+        <v>283</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>59</v>
@@ -1861,10 +1861,10 @@
         <v>50</v>
       </c>
       <c r="G30" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="H30" s="3" t="s">
         <v>122</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1881,10 +1881,10 @@
         <v>51</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1895,16 +1895,16 @@
         <v>8</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -1915,16 +1915,16 @@
         <v>91</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -1941,10 +1941,10 @@
         <v>52</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1961,10 +1961,10 @@
         <v>81</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1981,10 +1981,10 @@
         <v>82</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H36" s="8" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -2009,13 +2009,13 @@
         <v>86</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G38" s="13" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H38" s="13"/>
     </row>
@@ -2027,16 +2027,16 @@
         <v>85</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -2047,116 +2047,116 @@
         <v>84</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>39</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H40" s="8" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D42" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B43" s="9"/>
       <c r="D43" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="H43" s="8" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G46" s="9" t="s">
         <v>26</v>
@@ -2165,72 +2165,72 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="16"/>
       <c r="B50" s="16"/>
       <c r="D50" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>27</v>
@@ -2243,16 +2243,16 @@
       <c r="A51" s="16"/>
       <c r="B51" s="16"/>
       <c r="D51" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -2260,19 +2260,19 @@
         <v>9</v>
       </c>
       <c r="B52" s="14" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H52" s="8" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>

--- a/IntelliJ-Shortcuts.xlsx
+++ b/IntelliJ-Shortcuts.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="280">
   <si>
     <t>Smart code completion</t>
   </si>
@@ -163,48 +163,24 @@
     <t>Ctrl + Shift + V</t>
   </si>
   <si>
-    <t>Ctrl + D</t>
-  </si>
-  <si>
-    <t>Ctrl + Y</t>
-  </si>
-  <si>
     <t>Shift + Enter</t>
   </si>
   <si>
     <t>Ctrl + Shift + U</t>
   </si>
   <si>
-    <t>Ctrl + NumPad+ / -</t>
-  </si>
-  <si>
     <t>Ctrl + F4</t>
   </si>
   <si>
     <t>Close active editor tab</t>
   </si>
   <si>
-    <t>Collapse all</t>
-  </si>
-  <si>
-    <t>Expand all</t>
-  </si>
-  <si>
-    <t>Expand / collapse code block</t>
-  </si>
-  <si>
     <t>Toggle case for word at caret or selected block</t>
   </si>
   <si>
     <t>Start new line</t>
   </si>
   <si>
-    <t>Delete line at caret</t>
-  </si>
-  <si>
-    <t>Duplicate current line</t>
-  </si>
-  <si>
     <t>Paste from recent buffers…</t>
   </si>
   <si>
@@ -262,12 +238,6 @@
     <t>Ctrl + X, Shift + Delete</t>
   </si>
   <si>
-    <t>Ctrl + Shift + NumPad+</t>
-  </si>
-  <si>
-    <t>Ctrl + Shift + NumPad-</t>
-  </si>
-  <si>
     <t>Refactoring</t>
   </si>
   <si>
@@ -544,9 +514,6 @@
     <t>Alt + Circumflex (^)</t>
   </si>
   <si>
-    <t>Select till code block start / end</t>
-  </si>
-  <si>
     <t>Move to code block start / end</t>
   </si>
   <si>
@@ -643,12 +610,6 @@
     <t>Ctrl + O/I</t>
   </si>
   <si>
-    <t>Delete to word end/start</t>
-  </si>
-  <si>
-    <t>Ctrl + Delete/Backspace</t>
-  </si>
-  <si>
     <t>Insert/Surround with Live Template</t>
   </si>
   <si>
@@ -772,12 +733,6 @@
     <t>Reset Font Size</t>
   </si>
   <si>
-    <t>Ctrl + NumPad-0</t>
-  </si>
-  <si>
-    <t>Ctrl + NumPad-4/NumPad-6</t>
-  </si>
-  <si>
     <t>Ctrl + B, Ctrl + Click</t>
   </si>
   <si>
@@ -869,6 +824,39 @@
   </si>
   <si>
     <t>Ctrl + #[0-9] / Ctrl + Shift + #[0-9]</t>
+  </si>
+  <si>
+    <t>Duplicate/Delete current line</t>
+  </si>
+  <si>
+    <t>Ctrl + D/Y</t>
+  </si>
+  <si>
+    <t>Ctrl + NumPad+/NumPad-</t>
+  </si>
+  <si>
+    <t>Ctrl + NumPad4/NumPad6</t>
+  </si>
+  <si>
+    <t>Ctrl + NumPad0</t>
+  </si>
+  <si>
+    <t>Ctrl + Shift + NumPad+/-</t>
+  </si>
+  <si>
+    <t>Expand/collapse all</t>
+  </si>
+  <si>
+    <t>Expand/collapse block</t>
+  </si>
+  <si>
+    <t>Select till code block start/end</t>
+  </si>
+  <si>
+    <t>Delete to word start/end</t>
+  </si>
+  <si>
+    <t>Ctrl + Backspace/Delete</t>
   </si>
 </sst>
 </file>
@@ -1277,8 +1265,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1303,7 +1291,7 @@
       </c>
       <c r="E1" s="13"/>
       <c r="G1" s="13" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="H1" s="13"/>
     </row>
@@ -1315,24 +1303,24 @@
         <v>12</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>35</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>0</v>
@@ -1341,30 +1329,30 @@
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>36</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1381,10 +1369,10 @@
         <v>3</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1395,16 +1383,16 @@
         <v>16</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>4</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1415,50 +1403,50 @@
         <v>18</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>37</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>41</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>5</v>
@@ -1475,16 +1463,16 @@
         <v>20</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1492,19 +1480,19 @@
         <v>21</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>38</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1515,16 +1503,16 @@
         <v>23</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>39</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1535,124 +1523,124 @@
         <v>25</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="D14" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>40</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="B15" s="6"/>
       <c r="D15" s="2" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="G16" s="2" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>160</v>
-      </c>
       <c r="G17" s="2" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D19" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>42</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1661,56 +1649,56 @@
       </c>
       <c r="B20" s="9"/>
       <c r="D20" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>43</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>44</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>45</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1721,76 +1709,76 @@
         <v>31</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>46</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>47</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -1801,90 +1789,90 @@
         <v>32</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>61</v>
+        <v>269</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>48</v>
+        <v>270</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="D28" s="2" t="s">
-        <v>60</v>
+        <v>178</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>49</v>
+        <v>179</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="B29" s="10"/>
       <c r="D29" s="2" t="s">
-        <v>189</v>
+        <v>53</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>190</v>
+        <v>48</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>51</v>
+        <v>82</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>205</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1894,263 +1882,263 @@
       <c r="B32" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D32" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>218</v>
+      <c r="D32" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>279</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>208</v>
+        <v>276</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>209</v>
+        <v>271</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>57</v>
+        <v>275</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>52</v>
+        <v>274</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>155</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="H36" s="8" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>53</v>
+        <v>77</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>165</v>
+        <v>76</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="G38" s="13" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="H38" s="13"/>
     </row>
     <row r="39" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="E39" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E39" s="3" t="s">
         <v>167</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>177</v>
+        <v>151</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>39</v>
+        <v>260</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="H40" s="8" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>178</v>
+        <v>261</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D42" s="2" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>275</v>
+        <v>194</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="B43" s="9"/>
       <c r="D43" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>276</v>
+        <v>177</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="H43" s="8" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>205</v>
+        <v>174</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>186</v>
@@ -2165,72 +2153,72 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>199</v>
+        <v>175</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>200</v>
+        <v>262</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>277</v>
+        <v>202</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>236</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="16"/>
       <c r="B50" s="16"/>
-      <c r="D50" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>198</v>
+      <c r="D50" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>273</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>27</v>
@@ -2242,17 +2230,11 @@
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="16"/>
       <c r="B51" s="16"/>
-      <c r="D51" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="E51" s="8" t="s">
-        <v>249</v>
-      </c>
       <c r="G51" s="2" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -2260,19 +2242,13 @@
         <v>9</v>
       </c>
       <c r="B52" s="14" t="s">
-        <v>255</v>
-      </c>
-      <c r="D52" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="E52" s="8" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="H52" s="8" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>

--- a/IntelliJ-Shortcuts.xlsx
+++ b/IntelliJ-Shortcuts.xlsx
@@ -376,12 +376,6 @@
     <t>File structure popup</t>
   </si>
   <si>
-    <t>Go to previous / next method</t>
-  </si>
-  <si>
-    <t>Go to super-method / super-class</t>
-  </si>
-  <si>
     <t>Go to type declaration</t>
   </si>
   <si>
@@ -391,9 +385,6 @@
     <t>Go to symbol</t>
   </si>
   <si>
-    <t>Go to next / previous editor tab</t>
-  </si>
-  <si>
     <t>Go back to previous tool window</t>
   </si>
   <si>
@@ -406,9 +397,6 @@
     <t>Go to line</t>
   </si>
   <si>
-    <t>Navigate back / forward</t>
-  </si>
-  <si>
     <t>Navigate to last edit location</t>
   </si>
   <si>
@@ -475,9 +463,6 @@
     <t>Move Line Up/Down</t>
   </si>
   <si>
-    <t>Undo/Redo</t>
-  </si>
-  <si>
     <t>Ctrl + Tab / Ctrl + Shift + Tab</t>
   </si>
   <si>
@@ -694,9 +679,6 @@
     <t>Toggle breakpoint / View breakpoints</t>
   </si>
   <si>
-    <t>Switcher (Next/Previous editor tab/tool win)</t>
-  </si>
-  <si>
     <t>Stop / Rerun</t>
   </si>
   <si>
@@ -724,9 +706,6 @@
     <t>Alt + Shift + M</t>
   </si>
   <si>
-    <t>Decrease / Increase Font Size</t>
-  </si>
-  <si>
     <t>Ctrl + &lt; / Ctrl + Shift + &lt;</t>
   </si>
   <si>
@@ -745,18 +724,12 @@
     <t>Ctrl + Alt + Shift + F9</t>
   </si>
   <si>
-    <t>Select configuration and debug / run</t>
-  </si>
-  <si>
     <t>Alt + Shift + F9/F10</t>
   </si>
   <si>
     <t>Shift + F9/F10</t>
   </si>
   <si>
-    <t>Debug / Run</t>
-  </si>
-  <si>
     <t>Debug/Run context configuration from editor</t>
   </si>
   <si>
@@ -857,6 +830,33 @@
   </si>
   <si>
     <t>Ctrl + Backspace/Delete</t>
+  </si>
+  <si>
+    <t>Debug/Run</t>
+  </si>
+  <si>
+    <t>Select configuration and debug/run</t>
+  </si>
+  <si>
+    <t>Switcher (Next/Previous editor tab|tool win)</t>
+  </si>
+  <si>
+    <t>Go to previous/next method</t>
+  </si>
+  <si>
+    <t>Go to super-method or super-class</t>
+  </si>
+  <si>
+    <t>Navigate back/forward</t>
+  </si>
+  <si>
+    <t>Go to next/previous editor tab</t>
+  </si>
+  <si>
+    <t>Undo / Redo</t>
+  </si>
+  <si>
+    <t>Decrease/Increase Font Size</t>
   </si>
 </sst>
 </file>
@@ -1265,8 +1265,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16:E17"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1309,18 +1309,18 @@
         <v>35</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>0</v>
@@ -1329,7 +1329,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>93</v>
@@ -1337,10 +1337,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>70</v>
@@ -1349,10 +1349,10 @@
         <v>36</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>124</v>
+        <v>277</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1369,7 +1369,7 @@
         <v>3</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>94</v>
@@ -1383,13 +1383,13 @@
         <v>16</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>4</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>95</v>
@@ -1409,7 +1409,7 @@
         <v>37</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>96</v>
@@ -1417,10 +1417,10 @@
     </row>
     <row r="8" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>62</v>
@@ -1429,7 +1429,7 @@
         <v>41</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>97</v>
@@ -1437,16 +1437,16 @@
     </row>
     <row r="9" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>5</v>
@@ -1466,13 +1466,13 @@
         <v>68</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>129</v>
+        <v>276</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1480,7 +1480,7 @@
         <v>21</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>67</v>
@@ -1489,7 +1489,7 @@
         <v>38</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>98</v>
@@ -1509,7 +1509,7 @@
         <v>39</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>99</v>
@@ -1523,16 +1523,16 @@
         <v>25</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1545,7 +1545,7 @@
         <v>40</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>100</v>
@@ -1553,17 +1553,17 @@
     </row>
     <row r="15" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B15" s="6"/>
       <c r="D15" s="2" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>101</v>
@@ -1571,19 +1571,19 @@
     </row>
     <row r="16" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>64</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>102</v>
@@ -1591,19 +1591,19 @@
     </row>
     <row r="17" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>63</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>120</v>
+        <v>275</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>103</v>
@@ -1611,22 +1611,22 @@
     </row>
     <row r="18" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>119</v>
+        <v>274</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1637,10 +1637,10 @@
         <v>42</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1655,18 +1655,18 @@
         <v>43</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>59</v>
@@ -1683,10 +1683,10 @@
     </row>
     <row r="22" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>58</v>
@@ -1723,16 +1723,16 @@
     </row>
     <row r="24" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>56</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>115</v>
@@ -1743,10 +1743,10 @@
     </row>
     <row r="25" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>55</v>
@@ -1763,10 +1763,10 @@
     </row>
     <row r="26" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>54</v>
@@ -1775,7 +1775,7 @@
         <v>47</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>109</v>
@@ -1789,10 +1789,10 @@
         <v>32</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>113</v>
@@ -1805,16 +1805,16 @@
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="D28" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1829,18 +1829,18 @@
         <v>48</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>52</v>
@@ -1863,16 +1863,16 @@
         <v>82</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1883,16 +1883,16 @@
         <v>8</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -1903,16 +1903,16 @@
         <v>81</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>225</v>
+        <v>273</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -1923,16 +1923,16 @@
         <v>80</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1949,10 +1949,10 @@
         <v>50</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1963,16 +1963,16 @@
         <v>78</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="H36" s="8" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1983,10 +1983,10 @@
         <v>77</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1997,13 +1997,13 @@
         <v>76</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>39</v>
       </c>
       <c r="G38" s="13" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="H38" s="13"/>
     </row>
@@ -2015,16 +2015,16 @@
         <v>75</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -2035,116 +2035,116 @@
         <v>74</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="H40" s="8" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>245</v>
+        <v>271</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D42" s="2" t="s">
-        <v>152</v>
+        <v>278</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>243</v>
+        <v>189</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="H42" s="8" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B43" s="9"/>
       <c r="D43" s="2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="H43" s="8" t="s">
-        <v>247</v>
+        <v>172</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="G46" s="9" t="s">
         <v>26</v>
@@ -2153,72 +2153,72 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>235</v>
+        <v>279</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="16"/>
       <c r="B50" s="16"/>
       <c r="D50" s="7" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>27</v>
@@ -2231,10 +2231,10 @@
       <c r="A51" s="16"/>
       <c r="B51" s="16"/>
       <c r="G51" s="2" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -2242,13 +2242,13 @@
         <v>9</v>
       </c>
       <c r="B52" s="14" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="H52" s="8" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>

--- a/IntelliJ-Shortcuts.xlsx
+++ b/IntelliJ-Shortcuts.xlsx
@@ -1265,8 +1265,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A22" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/IntelliJ-Shortcuts.xlsx
+++ b/IntelliJ-Shortcuts.xlsx
@@ -157,9 +157,6 @@
     <t>Tab / Shift + Tab</t>
   </si>
   <si>
-    <t>Ctrl + V , Shift + Insert</t>
-  </si>
-  <si>
     <t>Ctrl + Shift + V</t>
   </si>
   <si>
@@ -235,9 +232,6 @@
     <t>Basic code completion</t>
   </si>
   <si>
-    <t>Ctrl + X, Shift + Delete</t>
-  </si>
-  <si>
     <t>Refactoring</t>
   </si>
   <si>
@@ -403,9 +397,6 @@
     <t>Select current file or symbol in any view</t>
   </si>
   <si>
-    <t>Go to declaration</t>
-  </si>
-  <si>
     <t>Go to implementation(s)</t>
   </si>
   <si>
@@ -712,12 +703,6 @@
     <t>Reset Font Size</t>
   </si>
   <si>
-    <t>Ctrl + B, Ctrl + Click</t>
-  </si>
-  <si>
-    <t>Ctrl + C, Ctrl + Insert</t>
-  </si>
-  <si>
     <t>Shortcut added/changed</t>
   </si>
   <si>
@@ -857,6 +842,21 @@
   </si>
   <si>
     <t>Decrease/Increase Font Size</t>
+  </si>
+  <si>
+    <t>Ctrl + B; Ctrl + Click; Middle Click</t>
+  </si>
+  <si>
+    <t>Ctrl + X; Shift + Delete</t>
+  </si>
+  <si>
+    <t>Ctrl + V; Shift + Insert</t>
+  </si>
+  <si>
+    <t>Ctrl + C; Ctrl + Insert</t>
+  </si>
+  <si>
+    <t>Go to declaration / Find Usages</t>
   </si>
 </sst>
 </file>
@@ -1265,8 +1265,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A22" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1291,7 +1291,7 @@
       </c>
       <c r="E1" s="13"/>
       <c r="G1" s="13" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H1" s="13"/>
     </row>
@@ -1303,24 +1303,24 @@
         <v>12</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>35</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>0</v>
@@ -1329,30 +1329,30 @@
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>36</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1369,10 +1369,10 @@
         <v>3</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1383,16 +1383,16 @@
         <v>16</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>4</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1403,50 +1403,50 @@
         <v>18</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>37</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>41</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>5</v>
@@ -1463,16 +1463,16 @@
         <v>20</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1480,19 +1480,19 @@
         <v>21</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>38</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1503,16 +1503,16 @@
         <v>23</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>39</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1523,124 +1523,124 @@
         <v>25</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>128</v>
+        <v>279</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>231</v>
+        <v>275</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="D14" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>40</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B15" s="6"/>
       <c r="D15" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D19" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>42</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1649,56 +1649,56 @@
       </c>
       <c r="B20" s="9"/>
       <c r="D20" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>43</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>44</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>45</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1709,76 +1709,76 @@
         <v>31</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>72</v>
+        <v>276</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>232</v>
+        <v>278</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>46</v>
+        <v>277</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -1789,90 +1789,90 @@
         <v>32</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="D28" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B29" s="10"/>
       <c r="D29" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1883,268 +1883,268 @@
         <v>8</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="H36" s="8" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>39</v>
       </c>
       <c r="G38" s="13" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H38" s="13"/>
     </row>
     <row r="39" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="H40" s="8" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D42" s="2" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="H42" s="8" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B43" s="9"/>
       <c r="D43" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G46" s="9" t="s">
         <v>26</v>
@@ -2153,72 +2153,72 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B47" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D47" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="D47" s="2" t="s">
-        <v>170</v>
-      </c>
       <c r="E47" s="3" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="16"/>
       <c r="B50" s="16"/>
       <c r="D50" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>27</v>
@@ -2231,10 +2231,10 @@
       <c r="A51" s="16"/>
       <c r="B51" s="16"/>
       <c r="G51" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -2242,13 +2242,13 @@
         <v>9</v>
       </c>
       <c r="B52" s="14" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H52" s="8" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>

--- a/IntelliJ-Shortcuts.xlsx
+++ b/IntelliJ-Shortcuts.xlsx
@@ -721,9 +721,6 @@
     <t>Ctrl + Shift + F9/10</t>
   </si>
   <si>
-    <t>Move to Prev/Next Word without CamelHups</t>
-  </si>
-  <si>
     <t>Parameter info (within method call args)</t>
   </si>
   <si>
@@ -857,13 +854,16 @@
   </si>
   <si>
     <t>Go to declaration / Find Usages</t>
+  </si>
+  <si>
+    <t>Move to Prev/Next Word without CamelHumps</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -874,6 +874,13 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -932,7 +939,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -957,6 +964,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1265,8 +1273,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1317,10 +1325,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>251</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>252</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>0</v>
@@ -1349,10 +1357,10 @@
         <v>36</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1383,7 +1391,7 @@
         <v>16</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>4</v>
@@ -1440,7 +1448,7 @@
         <v>221</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>163</v>
@@ -1469,10 +1477,10 @@
         <v>200</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1529,10 +1537,10 @@
         <v>188</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1603,7 +1611,7 @@
         <v>143</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>101</v>
@@ -1617,16 +1625,16 @@
         <v>134</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>196</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1663,10 +1671,10 @@
     </row>
     <row r="21" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>58</v>
@@ -1712,7 +1720,7 @@
         <v>56</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>114</v>
@@ -1723,16 +1731,16 @@
     </row>
     <row r="24" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>238</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>239</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>55</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>113</v>
@@ -1752,7 +1760,7 @@
         <v>54</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>112</v>
@@ -1789,10 +1797,10 @@
         <v>32</v>
       </c>
       <c r="D27" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="E27" s="3" t="s">
         <v>255</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>256</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>111</v>
@@ -1829,10 +1837,10 @@
         <v>47</v>
       </c>
       <c r="G29" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="H29" s="3" t="s">
         <v>253</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1863,7 +1871,7 @@
         <v>80</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E31" s="8" t="s">
         <v>197</v>
@@ -1883,16 +1891,16 @@
         <v>8</v>
       </c>
       <c r="D32" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="E32" s="3" t="s">
         <v>264</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>265</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>153</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -1903,13 +1911,13 @@
         <v>79</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>145</v>
@@ -1923,10 +1931,10 @@
         <v>78</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>150</v>
@@ -1968,11 +1976,11 @@
       <c r="E36" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="G36" s="7" t="s">
-        <v>234</v>
+      <c r="G36" s="18" t="s">
+        <v>279</v>
       </c>
       <c r="H36" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -2038,7 +2046,7 @@
         <v>144</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G40" s="7" t="s">
         <v>129</v>
@@ -2052,16 +2060,16 @@
         <v>183</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>154</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>231</v>
@@ -2069,7 +2077,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D42" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>186</v>
@@ -2093,7 +2101,7 @@
         <v>169</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>230</v>
@@ -2162,7 +2170,7 @@
         <v>167</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>207</v>
@@ -2176,7 +2184,7 @@
         <v>182</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>167</v>
@@ -2199,7 +2207,7 @@
         <v>194</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E49" s="8" t="s">
         <v>226</v>
@@ -2218,7 +2226,7 @@
         <v>227</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>27</v>

--- a/IntelliJ-Shortcuts.xlsx
+++ b/IntelliJ-Shortcuts.xlsx
@@ -457,12 +457,6 @@
     <t>Ctrl + Tab / Ctrl + Shift + Tab</t>
   </si>
   <si>
-    <t>Close all tabs</t>
-  </si>
-  <si>
-    <t>Ctrl + Alt + W</t>
-  </si>
-  <si>
     <t>Show Whitespaces</t>
   </si>
   <si>
@@ -857,6 +851,12 @@
   </si>
   <si>
     <t>Move to Prev/Next Word without CamelHumps</t>
+  </si>
+  <si>
+    <t>Close Others / Close all tabs</t>
+  </si>
+  <si>
+    <t>Alt + W / Ctrl + Alt + W</t>
   </si>
 </sst>
 </file>
@@ -1273,8 +1273,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A28" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1317,18 +1317,18 @@
         <v>35</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>0</v>
@@ -1345,10 +1345,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>69</v>
@@ -1357,10 +1357,10 @@
         <v>36</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1391,7 +1391,7 @@
         <v>16</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>4</v>
@@ -1425,10 +1425,10 @@
     </row>
     <row r="8" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>61</v>
@@ -1445,16 +1445,16 @@
     </row>
     <row r="9" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>5</v>
@@ -1474,13 +1474,13 @@
         <v>67</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1488,7 +1488,7 @@
         <v>21</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>66</v>
@@ -1531,16 +1531,16 @@
         <v>25</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1565,10 +1565,10 @@
       </c>
       <c r="B15" s="6"/>
       <c r="D15" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>118</v>
@@ -1611,7 +1611,7 @@
         <v>143</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>101</v>
@@ -1625,16 +1625,16 @@
         <v>134</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1645,10 +1645,10 @@
         <v>42</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1663,18 +1663,18 @@
         <v>43</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>58</v>
@@ -1691,10 +1691,10 @@
     </row>
     <row r="22" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>57</v>
@@ -1720,7 +1720,7 @@
         <v>56</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>114</v>
@@ -1731,16 +1731,16 @@
     </row>
     <row r="24" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>55</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>113</v>
@@ -1751,16 +1751,16 @@
     </row>
     <row r="25" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>54</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>112</v>
@@ -1771,10 +1771,10 @@
     </row>
     <row r="26" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>53</v>
@@ -1783,7 +1783,7 @@
         <v>46</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>107</v>
@@ -1797,10 +1797,10 @@
         <v>32</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>111</v>
@@ -1813,16 +1813,16 @@
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="D28" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1837,18 +1837,18 @@
         <v>47</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>51</v>
@@ -1871,16 +1871,16 @@
         <v>80</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1891,16 +1891,16 @@
         <v>8</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -1911,13 +1911,13 @@
         <v>79</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>145</v>
@@ -1931,16 +1931,16 @@
         <v>78</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1957,10 +1957,10 @@
         <v>49</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1971,16 +1971,16 @@
         <v>76</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>146</v>
+        <v>278</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>147</v>
+        <v>279</v>
       </c>
       <c r="G36" s="18" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="H36" s="8" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1991,10 +1991,10 @@
         <v>75</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -2005,7 +2005,7 @@
         <v>74</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>39</v>
@@ -2023,10 +2023,10 @@
         <v>73</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>130</v>
@@ -2046,47 +2046,47 @@
         <v>144</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G40" s="7" t="s">
         <v>129</v>
       </c>
       <c r="H40" s="8" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D42" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="H42" s="8" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -2095,36 +2095,36 @@
       </c>
       <c r="B43" s="9"/>
       <c r="D43" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -2135,10 +2135,10 @@
         <v>139</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -2146,13 +2146,13 @@
         <v>140</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G46" s="9" t="s">
         <v>26</v>
@@ -2161,72 +2161,72 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D47" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="B47" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>167</v>
-      </c>
       <c r="E47" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="16"/>
       <c r="B50" s="16"/>
       <c r="D50" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>27</v>
@@ -2239,10 +2239,10 @@
       <c r="A51" s="16"/>
       <c r="B51" s="16"/>
       <c r="G51" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -2250,13 +2250,13 @@
         <v>9</v>
       </c>
       <c r="B52" s="14" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H52" s="8" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>

--- a/IntelliJ-Shortcuts.xlsx
+++ b/IntelliJ-Shortcuts.xlsx
@@ -34,9 +34,6 @@
     <t>Ctrl + P</t>
   </si>
   <si>
-    <t>Recent files popup</t>
-  </si>
-  <si>
     <t>Ctrl + E</t>
   </si>
   <si>
@@ -857,6 +854,9 @@
   </si>
   <si>
     <t>Alt + W / Ctrl + Alt + W</t>
+  </si>
+  <si>
+    <t>Recent files &amp; Views popup</t>
   </si>
 </sst>
 </file>
@@ -1273,8 +1273,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A28" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1291,44 +1291,44 @@
   <sheetData>
     <row r="1" spans="1:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" s="13"/>
       <c r="D1" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E1" s="13"/>
       <c r="G1" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H1" s="13"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>248</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>249</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>0</v>
@@ -1337,38 +1337,38 @@
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>14</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>2</v>
@@ -1377,886 +1377,886 @@
         <v>3</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="D6" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>4</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>18</v>
-      </c>
       <c r="D7" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G9" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="H9" s="5" t="s">
         <v>5</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="D10" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="D12" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="D13" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>186</v>
-      </c>
       <c r="G13" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="D14" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B15" s="6"/>
       <c r="D15" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>188</v>
-      </c>
       <c r="G15" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D19" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B20" s="9"/>
       <c r="D20" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G20" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="H20" s="3" t="s">
         <v>209</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>31</v>
-      </c>
       <c r="D23" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>236</v>
-      </c>
       <c r="D24" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>171</v>
-      </c>
       <c r="D25" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D27" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="E27" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="E27" s="3" t="s">
-        <v>253</v>
-      </c>
       <c r="G27" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="D28" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E28" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="E28" s="3" t="s">
-        <v>169</v>
-      </c>
       <c r="G28" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B29" s="10"/>
       <c r="D29" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G29" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="H29" s="3" t="s">
         <v>250</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>183</v>
-      </c>
       <c r="D30" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G30" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H30" s="3" t="s">
         <v>109</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B32" s="5" t="s">
-        <v>8</v>
-      </c>
       <c r="D32" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E32" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>262</v>
-      </c>
       <c r="G32" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G34" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="H34" s="3" t="s">
         <v>148</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G35" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="H35" s="3" t="s">
         <v>199</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D36" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="E36" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="E36" s="8" t="s">
-        <v>279</v>
-      </c>
       <c r="G36" s="18" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H36" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D37" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="E37" s="8" t="s">
         <v>146</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G38" s="13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H38" s="13"/>
     </row>
     <row r="39" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H40" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D42" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G42" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="H42" s="8" t="s">
         <v>230</v>
-      </c>
-      <c r="H42" s="8" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B43" s="9"/>
       <c r="D43" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E43" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>167</v>
-      </c>
       <c r="G43" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B44" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="B44" s="3" t="s">
-        <v>190</v>
-      </c>
       <c r="D44" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G44" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="H44" s="3" t="s">
         <v>215</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D45" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E45" s="3" t="s">
         <v>178</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G46" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H46" s="9"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G47" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="H47" s="3" t="s">
         <v>205</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G48" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="H48" s="3" t="s">
         <v>207</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B49" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="B49" s="3" t="s">
-        <v>192</v>
-      </c>
       <c r="D49" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G49" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="H49" s="3" t="s">
         <v>211</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="16"/>
       <c r="B50" s="16"/>
       <c r="D50" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G50" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H50" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="H50" s="3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="16"/>
       <c r="B51" s="16"/>
       <c r="G51" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B52" s="14" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G52" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="H52" s="8" t="s">
         <v>222</v>
-      </c>
-      <c r="H52" s="8" t="s">
-        <v>223</v>
       </c>
     </row>
   </sheetData>
